--- a/data/cli.xlsx
+++ b/data/cli.xlsx
@@ -1,71 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanMcLean\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\___CANADA\_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E50D0F4D-B232-4AC7-B68A-D31C16732F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>% Change vs Last Year</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,31 +52,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -396,593 +423,663 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
+    <col width="12.5703125" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" style="1" min="2" max="2"/>
+    <col width="14.42578125" customWidth="1" style="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>45597</v>
-      </c>
-      <c r="B2" s="3">
-        <v>100.46</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>% Change vs Last Year</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>101.04</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
-        <v>2.656856734109958</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>100.46</v>
+      </c>
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B4" s="3" t="n">
         <v>100.17</v>
       </c>
-      <c r="C3" s="1">
-        <f>(B3/B15-1)*100</f>
-        <v>2.4128412227788498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="C4" s="1">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
         <v>45536</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B5" s="3" t="n">
         <v>99.89</v>
       </c>
-      <c r="C4" s="1">
-        <f t="shared" ref="C4:C33" si="0">(B4/B16-1)*100</f>
-        <v>2.105693550035781</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="C5" s="1">
+        <f>(B5/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
         <v>45505</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="3" t="n">
         <v>99.63</v>
       </c>
-      <c r="C5" s="1">
-        <f t="shared" si="0"/>
-        <v>1.7983038724838973</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="C6" s="1">
+        <f>(B6/B18-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45474</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B7" s="3" t="n">
         <v>99.38</v>
       </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4910130718954084</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="C7" s="1">
+        <f>(B7/B19-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
         <v>45444</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3" t="n">
         <v>99.16</v>
       </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2146575482290478</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="C8" s="1">
+        <f>(B8/B20-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
         <v>45413</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B9" s="3" t="n">
         <v>98.95</v>
       </c>
-      <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.93848821789248582</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="C9" s="1">
+        <f>(B9/B21-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>45383</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B10" s="3" t="n">
         <v>98.75</v>
       </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.67285146294220333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="C10" s="1">
+        <f>(B10/B22-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
         <v>45352</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B11" s="3" t="n">
         <v>98.55</v>
       </c>
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.39731051344742419</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="C11" s="1">
+        <f>(B11/B23-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n">
         <v>45323</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B12" s="3" t="n">
         <v>98.34</v>
       </c>
-      <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>8.1416649704868505E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="C12" s="1">
+        <f>(B12/B24-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>45292</v>
       </c>
-      <c r="B12" s="3">
-        <v>98.15</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.23378735515348081</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="B13" s="3" t="n">
+        <v>98.15000000000001</v>
+      </c>
+      <c r="C13" s="1">
+        <f>(B13/B25-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n">
         <v>45261</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="3" t="n">
         <v>97.98</v>
       </c>
-      <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.55820562265299634</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="C14" s="1">
+        <f>(B14/B26-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n">
         <v>45231</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B15" s="3" t="n">
         <v>97.86</v>
       </c>
-      <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.88119112731692706</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="C15" s="1">
+        <f>(B15/B27-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B16" s="3" t="n">
         <v>97.81</v>
       </c>
-      <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.2319499141674184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="C16" s="1">
+        <f>(B16/B28-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n">
         <v>45170</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B17" s="3" t="n">
         <v>97.83</v>
       </c>
-      <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.5596699537130165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="C17" s="1">
+        <f>(B17/B29-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="n">
         <v>45139</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="3" t="n">
         <v>97.87</v>
       </c>
-      <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.8847117794486223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="C18" s="1">
+        <f>(B18/B30-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B19" s="3" t="n">
         <v>97.92</v>
       </c>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.3241895261845391</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="C19" s="1">
+        <f>(B19/B31-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n">
         <v>45078</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="3" t="n">
         <v>97.97</v>
       </c>
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.826820075381864</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="C20" s="1">
+        <f>(B20/B32-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n">
         <v>45047</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="3" t="n">
         <v>98.03</v>
       </c>
-      <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.3139362856297483</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="C21" s="1">
+        <f>(B21/B33-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="3" t="n">
         <v>98.09</v>
       </c>
-      <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.7200628190027452</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="C22" s="1">
+        <f>(B22/B34-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n">
         <v>44986</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B23" s="3" t="n">
         <v>98.16</v>
       </c>
-      <c r="C22" s="1">
-        <f t="shared" si="0"/>
-        <v>-4.0469208211143748</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="C23" s="1">
+        <f>(B23/B35-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n">
         <v>44958</v>
       </c>
-      <c r="B23" s="3">
-        <v>98.26</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" si="0"/>
-        <v>-4.1739808855080991</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="B24" s="3" t="n">
+        <v>98.26000000000001</v>
+      </c>
+      <c r="C24" s="1">
+        <f>(B24/B36-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B25" s="3" t="n">
         <v>98.38</v>
       </c>
-      <c r="C24" s="1">
-        <f t="shared" si="0"/>
-        <v>-4.2344008566144398</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="C25" s="1">
+        <f>(B25/B37-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n">
         <v>44896</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B26" s="3" t="n">
         <v>98.53</v>
       </c>
-      <c r="C25" s="1">
-        <f t="shared" si="0"/>
-        <v>-4.2654488923435707</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="C26" s="1">
+        <f>(B26/B38-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n">
         <v>44866</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B27" s="3" t="n">
         <v>98.73</v>
       </c>
-      <c r="C26" s="1">
-        <f t="shared" si="0"/>
-        <v>-4.1921397379912628</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="C27" s="1">
+        <f>(B27/B39-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B28" s="3" t="n">
         <v>99.03</v>
       </c>
-      <c r="C27" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.9848749272832995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="C28" s="1">
+        <f>(B28/B40-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n">
         <v>44805</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B29" s="3" t="n">
         <v>99.38</v>
       </c>
-      <c r="C28" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.7108807286115653</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="C29" s="1">
+        <f>(B29/B41-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n">
         <v>44774</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B30" s="3" t="n">
         <v>99.75</v>
       </c>
-      <c r="C29" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.3991865194654358</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="C30" s="1">
+        <f>(B30/B42-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>44743</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B31" s="3" t="n">
         <v>100.25</v>
       </c>
-      <c r="C30" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.9337722695584878</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="C31" s="1">
+        <f>(B31/B43-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="n">
         <v>44713</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B32" s="3" t="n">
         <v>100.82</v>
       </c>
-      <c r="C31" s="1">
-        <f t="shared" si="0"/>
-        <v>-2.277793932344685</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="C32" s="1">
+        <f>(B32/B44-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="n">
         <v>44682</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B33" s="3" t="n">
         <v>101.39</v>
       </c>
-      <c r="C32" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.0732754415064827</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="C33" s="1">
+        <f>(B33/B45-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>44652</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B34" s="3" t="n">
         <v>101.88</v>
       </c>
-      <c r="C33" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.22524728234257774</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="C34" s="1">
+        <f>(B34/B46-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n">
         <v>44621</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B35" s="3" t="n">
         <v>102.3</v>
       </c>
-      <c r="C34" s="1">
-        <f t="shared" ref="C34:C37" si="1">(B34/B46-1)*100</f>
-        <v>0.19588638589618235</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="C35" s="1">
+        <f>(B35/B47-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n">
         <v>44593</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B36" s="3" t="n">
         <v>102.54</v>
       </c>
-      <c r="C35" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1242603550295938</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="C36" s="1">
+        <f>(B36/B48-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B37" s="3" t="n">
         <v>102.73</v>
       </c>
-      <c r="C36" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6524836730654968</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="C37" s="1">
+        <f>(B37/B49-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n">
         <v>44531</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B38" s="3" t="n">
         <v>102.92</v>
-      </c>
-      <c r="C37" s="1">
-        <f t="shared" si="1"/>
-        <v>2.2045680238331755</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>44501</v>
-      </c>
-      <c r="B38" s="3">
-        <v>103.05</v>
       </c>
       <c r="C38" s="1">
         <f>(B38/B50-1)*100</f>
-        <v>3.2358244840713368</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>103.05</v>
+      </c>
+      <c r="C39" s="1">
+        <f>(B39/B51-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B40" s="3" t="n">
         <v>103.14</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="C40">
+        <f>(B40/B52-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n">
         <v>44440</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B41" s="3" t="n">
         <v>103.21</v>
       </c>
-      <c r="C40"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="C41">
+        <f>(B41/B53-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n">
         <v>44409</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B42" s="3" t="n">
         <v>103.26</v>
       </c>
-      <c r="C41"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="C42">
+        <f>(B42/B54-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B43" s="3" t="n">
         <v>103.28</v>
       </c>
-      <c r="C42"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="C43">
+        <f>(B43/B55-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n">
         <v>44348</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B44" s="3" t="n">
         <v>103.17</v>
       </c>
-      <c r="C43"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="C44">
+        <f>(B44/B56-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n">
         <v>44317</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B45" s="3" t="n">
         <v>102.49</v>
       </c>
-      <c r="C44"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="C45">
+        <f>(B45/B57-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B46" s="3" t="n">
         <v>102.11</v>
       </c>
-      <c r="C45"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="C46">
+        <f>(B46/B58-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="n">
         <v>44256</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B47" s="3" t="n">
         <v>102.1</v>
       </c>
-      <c r="C46"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="C47">
+        <f>(B47/B59-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="n">
         <v>44228</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B48" s="3" t="n">
         <v>101.4</v>
       </c>
-      <c r="C47"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="C48">
+        <f>(B48/B60-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B49" s="3" t="n">
         <v>101.06</v>
       </c>
-      <c r="C48"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="C49">
+        <f>(B49/B61-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n">
         <v>44166</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B50" s="3" t="n">
         <v>100.7</v>
       </c>
-      <c r="C49"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="C50">
+        <f>(B50/B62-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="n">
         <v>44136</v>
       </c>
-      <c r="B50" s="3">
-        <v>99.82</v>
-      </c>
-      <c r="C50"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="B51" s="3" t="n">
+        <v>99.81999999999999</v>
+      </c>
+      <c r="C51">
+        <f>(B51/B63-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B51" s="3">
-        <v>99.43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
+      <c r="B52" s="3" t="n">
+        <v>99.43000000000001</v>
+      </c>
+      <c r="C52">
+        <f>(B52/B64-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="3" t="n"/>
+      <c r="C53">
+        <f>(B53/B65-1)*100</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/cli.xlsx
+++ b/data/cli.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,23 +461,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100.97</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B14-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2025-02-01</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>101.04</v>
-      </c>
-      <c r="C2">
-        <f>(B2/B14-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>100.46</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -485,23 +487,23 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="4" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>100.46</v>
+      </c>
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B5" s="3" t="n">
         <v>100.17</v>
-      </c>
-      <c r="C4" s="1">
-        <f>(B4/B16-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>45536</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>99.89</v>
       </c>
       <c r="C5" s="1">
         <f>(B5/B17-1)*100</f>
@@ -510,10 +512,10 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>99.63</v>
+        <v>99.89</v>
       </c>
       <c r="C6" s="1">
         <f>(B6/B18-1)*100</f>
@@ -521,11 +523,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45474</v>
+      <c r="A7" s="4" t="n">
+        <v>45505</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>99.38</v>
+        <v>99.63</v>
       </c>
       <c r="C7" s="1">
         <f>(B7/B19-1)*100</f>
@@ -533,11 +535,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>45444</v>
+      <c r="A8" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>99.16</v>
+        <v>99.38</v>
       </c>
       <c r="C8" s="1">
         <f>(B8/B20-1)*100</f>
@@ -546,10 +548,10 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>98.95</v>
+        <v>99.16</v>
       </c>
       <c r="C9" s="1">
         <f>(B9/B21-1)*100</f>
@@ -557,11 +559,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45383</v>
+      <c r="A10" s="4" t="n">
+        <v>45413</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>98.75</v>
+        <v>98.95</v>
       </c>
       <c r="C10" s="1">
         <f>(B10/B22-1)*100</f>
@@ -569,11 +571,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n">
-        <v>45352</v>
+      <c r="A11" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>98.55</v>
+        <v>98.75</v>
       </c>
       <c r="C11" s="1">
         <f>(B11/B23-1)*100</f>
@@ -582,10 +584,10 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>98.34</v>
+        <v>98.55</v>
       </c>
       <c r="C12" s="1">
         <f>(B12/B24-1)*100</f>
@@ -593,11 +595,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45292</v>
+      <c r="A13" s="4" t="n">
+        <v>45323</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>98.15000000000001</v>
+        <v>98.34</v>
       </c>
       <c r="C13" s="1">
         <f>(B13/B25-1)*100</f>
@@ -605,11 +607,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
-        <v>45261</v>
+      <c r="A14" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>97.98</v>
+        <v>98.15000000000001</v>
       </c>
       <c r="C14" s="1">
         <f>(B14/B26-1)*100</f>
@@ -618,10 +620,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>97.86</v>
+        <v>97.98</v>
       </c>
       <c r="C15" s="1">
         <f>(B15/B27-1)*100</f>
@@ -629,11 +631,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45200</v>
+      <c r="A16" s="4" t="n">
+        <v>45231</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>97.81</v>
+        <v>97.86</v>
       </c>
       <c r="C16" s="1">
         <f>(B16/B28-1)*100</f>
@@ -641,11 +643,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
-        <v>45170</v>
+      <c r="A17" s="2" t="n">
+        <v>45200</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>97.83</v>
+        <v>97.81</v>
       </c>
       <c r="C17" s="1">
         <f>(B17/B29-1)*100</f>
@@ -654,10 +656,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>97.87</v>
+        <v>97.83</v>
       </c>
       <c r="C18" s="1">
         <f>(B18/B30-1)*100</f>
@@ -665,11 +667,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45108</v>
+      <c r="A19" s="4" t="n">
+        <v>45139</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>97.92</v>
+        <v>97.87</v>
       </c>
       <c r="C19" s="1">
         <f>(B19/B31-1)*100</f>
@@ -677,11 +679,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
-        <v>45078</v>
+      <c r="A20" s="2" t="n">
+        <v>45108</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>97.97</v>
+        <v>97.92</v>
       </c>
       <c r="C20" s="1">
         <f>(B20/B32-1)*100</f>
@@ -690,10 +692,10 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>98.03</v>
+        <v>97.97</v>
       </c>
       <c r="C21" s="1">
         <f>(B21/B33-1)*100</f>
@@ -701,11 +703,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45017</v>
+      <c r="A22" s="4" t="n">
+        <v>45047</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>98.09</v>
+        <v>98.03</v>
       </c>
       <c r="C22" s="1">
         <f>(B22/B34-1)*100</f>
@@ -713,11 +715,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n">
-        <v>44986</v>
+      <c r="A23" s="2" t="n">
+        <v>45017</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>98.16</v>
+        <v>98.09</v>
       </c>
       <c r="C23" s="1">
         <f>(B23/B35-1)*100</f>
@@ -726,10 +728,10 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>98.26000000000001</v>
+        <v>98.16</v>
       </c>
       <c r="C24" s="1">
         <f>(B24/B36-1)*100</f>
@@ -737,11 +739,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>44927</v>
+      <c r="A25" s="4" t="n">
+        <v>44958</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>98.38</v>
+        <v>98.26000000000001</v>
       </c>
       <c r="C25" s="1">
         <f>(B25/B37-1)*100</f>
@@ -749,11 +751,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
-        <v>44896</v>
+      <c r="A26" s="2" t="n">
+        <v>44927</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>98.53</v>
+        <v>98.38</v>
       </c>
       <c r="C26" s="1">
         <f>(B26/B38-1)*100</f>
@@ -762,10 +764,10 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>98.73</v>
+        <v>98.53</v>
       </c>
       <c r="C27" s="1">
         <f>(B27/B39-1)*100</f>
@@ -773,11 +775,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>44835</v>
+      <c r="A28" s="4" t="n">
+        <v>44866</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>99.03</v>
+        <v>98.73</v>
       </c>
       <c r="C28" s="1">
         <f>(B28/B40-1)*100</f>
@@ -785,11 +787,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n">
-        <v>44805</v>
+      <c r="A29" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>99.38</v>
+        <v>99.03</v>
       </c>
       <c r="C29" s="1">
         <f>(B29/B41-1)*100</f>
@@ -798,10 +800,10 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>99.75</v>
+        <v>99.38</v>
       </c>
       <c r="C30" s="1">
         <f>(B30/B42-1)*100</f>
@@ -809,11 +811,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>44743</v>
+      <c r="A31" s="4" t="n">
+        <v>44774</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>100.25</v>
+        <v>99.75</v>
       </c>
       <c r="C31" s="1">
         <f>(B31/B43-1)*100</f>
@@ -821,11 +823,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
-        <v>44713</v>
+      <c r="A32" s="2" t="n">
+        <v>44743</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>100.82</v>
+        <v>100.25</v>
       </c>
       <c r="C32" s="1">
         <f>(B32/B44-1)*100</f>
@@ -834,10 +836,10 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>101.39</v>
+        <v>100.82</v>
       </c>
       <c r="C33" s="1">
         <f>(B33/B45-1)*100</f>
@@ -845,11 +847,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>44652</v>
+      <c r="A34" s="4" t="n">
+        <v>44682</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>101.88</v>
+        <v>101.39</v>
       </c>
       <c r="C34" s="1">
         <f>(B34/B46-1)*100</f>
@@ -857,11 +859,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="n">
-        <v>44621</v>
+      <c r="A35" s="2" t="n">
+        <v>44652</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>102.3</v>
+        <v>101.88</v>
       </c>
       <c r="C35" s="1">
         <f>(B35/B47-1)*100</f>
@@ -870,10 +872,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>102.54</v>
+        <v>102.3</v>
       </c>
       <c r="C36" s="1">
         <f>(B36/B48-1)*100</f>
@@ -881,11 +883,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>44562</v>
+      <c r="A37" s="4" t="n">
+        <v>44593</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>102.73</v>
+        <v>102.54</v>
       </c>
       <c r="C37" s="1">
         <f>(B37/B49-1)*100</f>
@@ -893,11 +895,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n">
-        <v>44531</v>
+      <c r="A38" s="2" t="n">
+        <v>44562</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>102.92</v>
+        <v>102.73</v>
       </c>
       <c r="C38" s="1">
         <f>(B38/B50-1)*100</f>
@@ -906,10 +908,10 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>103.05</v>
+        <v>102.92</v>
       </c>
       <c r="C39" s="1">
         <f>(B39/B51-1)*100</f>
@@ -917,23 +919,23 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="4" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>103.05</v>
+      </c>
+      <c r="C40" s="1">
+        <f>(B40/B52-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B41" s="3" t="n">
         <v>103.14</v>
-      </c>
-      <c r="C40">
-        <f>(B40/B52-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="4" t="n">
-        <v>44440</v>
-      </c>
-      <c r="B41" s="3" t="n">
-        <v>103.21</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -942,10 +944,10 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>103.26</v>
+        <v>103.21</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -953,11 +955,11 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>44378</v>
+      <c r="A43" s="4" t="n">
+        <v>44409</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>103.28</v>
+        <v>103.26</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -965,11 +967,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n">
-        <v>44348</v>
+      <c r="A44" s="2" t="n">
+        <v>44378</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>103.17</v>
+        <v>103.28</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -978,10 +980,10 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>102.49</v>
+        <v>103.17</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -989,11 +991,11 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44287</v>
+      <c r="A46" s="4" t="n">
+        <v>44317</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>102.11</v>
+        <v>102.49</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1001,11 +1003,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="n">
-        <v>44256</v>
+      <c r="A47" s="2" t="n">
+        <v>44287</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>102.1</v>
+        <v>102.11</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1014,10 +1016,10 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>101.4</v>
+        <v>102.1</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1025,11 +1027,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>44197</v>
+      <c r="A49" s="4" t="n">
+        <v>44228</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>101.06</v>
+        <v>101.4</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1037,11 +1039,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="n">
-        <v>44166</v>
+      <c r="A50" s="2" t="n">
+        <v>44197</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>100.7</v>
+        <v>101.06</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1050,10 +1052,10 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>99.81999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1061,11 +1063,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>44105</v>
+      <c r="A52" s="4" t="n">
+        <v>44136</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>99.43000000000001</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1073,9 +1075,21 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" s="3" t="n"/>
+      <c r="A53" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>99.43000000000001</v>
+      </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="3" t="n"/>
+      <c r="C54">
+        <f>(B54/B66-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/cli.xlsx
+++ b/data/cli.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,11 +461,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.97</v>
+        <v>100.77</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -475,23 +475,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100.97</v>
+      </c>
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2025-02-01</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>101.04</v>
-      </c>
-      <c r="C3">
-        <f>(B3/B15-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>100.46</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -499,23 +501,23 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="4" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>100.46</v>
+      </c>
+      <c r="C5">
+        <f>(B5/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B6" s="3" t="n">
         <v>100.17</v>
-      </c>
-      <c r="C5" s="1">
-        <f>(B5/B17-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>45536</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>99.89</v>
       </c>
       <c r="C6" s="1">
         <f>(B6/B18-1)*100</f>
@@ -524,10 +526,10 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>99.63</v>
+        <v>99.89</v>
       </c>
       <c r="C7" s="1">
         <f>(B7/B19-1)*100</f>
@@ -535,11 +537,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45474</v>
+      <c r="A8" s="4" t="n">
+        <v>45505</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>99.38</v>
+        <v>99.63</v>
       </c>
       <c r="C8" s="1">
         <f>(B8/B20-1)*100</f>
@@ -547,11 +549,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n">
-        <v>45444</v>
+      <c r="A9" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>99.16</v>
+        <v>99.38</v>
       </c>
       <c r="C9" s="1">
         <f>(B9/B21-1)*100</f>
@@ -560,10 +562,10 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>98.95</v>
+        <v>99.16</v>
       </c>
       <c r="C10" s="1">
         <f>(B10/B22-1)*100</f>
@@ -571,11 +573,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45383</v>
+      <c r="A11" s="4" t="n">
+        <v>45413</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>98.75</v>
+        <v>98.95</v>
       </c>
       <c r="C11" s="1">
         <f>(B11/B23-1)*100</f>
@@ -583,11 +585,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
-        <v>45352</v>
+      <c r="A12" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>98.55</v>
+        <v>98.75</v>
       </c>
       <c r="C12" s="1">
         <f>(B12/B24-1)*100</f>
@@ -596,10 +598,10 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>98.34</v>
+        <v>98.55</v>
       </c>
       <c r="C13" s="1">
         <f>(B13/B25-1)*100</f>
@@ -607,11 +609,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45292</v>
+      <c r="A14" s="4" t="n">
+        <v>45323</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>98.15000000000001</v>
+        <v>98.34</v>
       </c>
       <c r="C14" s="1">
         <f>(B14/B26-1)*100</f>
@@ -619,11 +621,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
-        <v>45261</v>
+      <c r="A15" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>97.98</v>
+        <v>98.15000000000001</v>
       </c>
       <c r="C15" s="1">
         <f>(B15/B27-1)*100</f>
@@ -632,10 +634,10 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>97.86</v>
+        <v>97.98</v>
       </c>
       <c r="C16" s="1">
         <f>(B16/B28-1)*100</f>
@@ -643,11 +645,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45200</v>
+      <c r="A17" s="4" t="n">
+        <v>45231</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>97.81</v>
+        <v>97.86</v>
       </c>
       <c r="C17" s="1">
         <f>(B17/B29-1)*100</f>
@@ -655,11 +657,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
-        <v>45170</v>
+      <c r="A18" s="2" t="n">
+        <v>45200</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>97.83</v>
+        <v>97.81</v>
       </c>
       <c r="C18" s="1">
         <f>(B18/B30-1)*100</f>
@@ -668,10 +670,10 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>97.87</v>
+        <v>97.83</v>
       </c>
       <c r="C19" s="1">
         <f>(B19/B31-1)*100</f>
@@ -679,11 +681,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45108</v>
+      <c r="A20" s="4" t="n">
+        <v>45139</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>97.92</v>
+        <v>97.87</v>
       </c>
       <c r="C20" s="1">
         <f>(B20/B32-1)*100</f>
@@ -691,11 +693,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n">
-        <v>45078</v>
+      <c r="A21" s="2" t="n">
+        <v>45108</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>97.97</v>
+        <v>97.92</v>
       </c>
       <c r="C21" s="1">
         <f>(B21/B33-1)*100</f>
@@ -704,10 +706,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>98.03</v>
+        <v>97.97</v>
       </c>
       <c r="C22" s="1">
         <f>(B22/B34-1)*100</f>
@@ -715,11 +717,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45017</v>
+      <c r="A23" s="4" t="n">
+        <v>45047</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>98.09</v>
+        <v>98.03</v>
       </c>
       <c r="C23" s="1">
         <f>(B23/B35-1)*100</f>
@@ -727,11 +729,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
-        <v>44986</v>
+      <c r="A24" s="2" t="n">
+        <v>45017</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>98.16</v>
+        <v>98.09</v>
       </c>
       <c r="C24" s="1">
         <f>(B24/B36-1)*100</f>
@@ -740,10 +742,10 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>98.26000000000001</v>
+        <v>98.16</v>
       </c>
       <c r="C25" s="1">
         <f>(B25/B37-1)*100</f>
@@ -751,11 +753,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>44927</v>
+      <c r="A26" s="4" t="n">
+        <v>44958</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>98.38</v>
+        <v>98.26000000000001</v>
       </c>
       <c r="C26" s="1">
         <f>(B26/B38-1)*100</f>
@@ -763,11 +765,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="n">
-        <v>44896</v>
+      <c r="A27" s="2" t="n">
+        <v>44927</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>98.53</v>
+        <v>98.38</v>
       </c>
       <c r="C27" s="1">
         <f>(B27/B39-1)*100</f>
@@ -776,10 +778,10 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>98.73</v>
+        <v>98.53</v>
       </c>
       <c r="C28" s="1">
         <f>(B28/B40-1)*100</f>
@@ -787,11 +789,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>44835</v>
+      <c r="A29" s="4" t="n">
+        <v>44866</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>99.03</v>
+        <v>98.73</v>
       </c>
       <c r="C29" s="1">
         <f>(B29/B41-1)*100</f>
@@ -799,11 +801,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
-        <v>44805</v>
+      <c r="A30" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>99.38</v>
+        <v>99.03</v>
       </c>
       <c r="C30" s="1">
         <f>(B30/B42-1)*100</f>
@@ -812,10 +814,10 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>99.75</v>
+        <v>99.38</v>
       </c>
       <c r="C31" s="1">
         <f>(B31/B43-1)*100</f>
@@ -823,11 +825,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>44743</v>
+      <c r="A32" s="4" t="n">
+        <v>44774</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>100.25</v>
+        <v>99.75</v>
       </c>
       <c r="C32" s="1">
         <f>(B32/B44-1)*100</f>
@@ -835,11 +837,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="n">
-        <v>44713</v>
+      <c r="A33" s="2" t="n">
+        <v>44743</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>100.82</v>
+        <v>100.25</v>
       </c>
       <c r="C33" s="1">
         <f>(B33/B45-1)*100</f>
@@ -848,10 +850,10 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>101.39</v>
+        <v>100.82</v>
       </c>
       <c r="C34" s="1">
         <f>(B34/B46-1)*100</f>
@@ -859,11 +861,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>44652</v>
+      <c r="A35" s="4" t="n">
+        <v>44682</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>101.88</v>
+        <v>101.39</v>
       </c>
       <c r="C35" s="1">
         <f>(B35/B47-1)*100</f>
@@ -871,11 +873,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n">
-        <v>44621</v>
+      <c r="A36" s="2" t="n">
+        <v>44652</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>102.3</v>
+        <v>101.88</v>
       </c>
       <c r="C36" s="1">
         <f>(B36/B48-1)*100</f>
@@ -884,10 +886,10 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>102.54</v>
+        <v>102.3</v>
       </c>
       <c r="C37" s="1">
         <f>(B37/B49-1)*100</f>
@@ -895,11 +897,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>44562</v>
+      <c r="A38" s="4" t="n">
+        <v>44593</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>102.73</v>
+        <v>102.54</v>
       </c>
       <c r="C38" s="1">
         <f>(B38/B50-1)*100</f>
@@ -907,11 +909,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="n">
-        <v>44531</v>
+      <c r="A39" s="2" t="n">
+        <v>44562</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>102.92</v>
+        <v>102.73</v>
       </c>
       <c r="C39" s="1">
         <f>(B39/B51-1)*100</f>
@@ -920,10 +922,10 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>103.05</v>
+        <v>102.92</v>
       </c>
       <c r="C40" s="1">
         <f>(B40/B52-1)*100</f>
@@ -931,23 +933,23 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="4" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>103.05</v>
+      </c>
+      <c r="C41" s="1">
+        <f>(B41/B53-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B42" s="3" t="n">
         <v>103.14</v>
-      </c>
-      <c r="C41">
-        <f>(B41/B53-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="4" t="n">
-        <v>44440</v>
-      </c>
-      <c r="B42" s="3" t="n">
-        <v>103.21</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -956,10 +958,10 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>103.26</v>
+        <v>103.21</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -967,11 +969,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>44378</v>
+      <c r="A44" s="4" t="n">
+        <v>44409</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>103.28</v>
+        <v>103.26</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -979,11 +981,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="n">
-        <v>44348</v>
+      <c r="A45" s="2" t="n">
+        <v>44378</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>103.17</v>
+        <v>103.28</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -992,10 +994,10 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>102.49</v>
+        <v>103.17</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1003,11 +1005,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>44287</v>
+      <c r="A47" s="4" t="n">
+        <v>44317</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>102.11</v>
+        <v>102.49</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1015,11 +1017,11 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="n">
-        <v>44256</v>
+      <c r="A48" s="2" t="n">
+        <v>44287</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>102.1</v>
+        <v>102.11</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1028,10 +1030,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>101.4</v>
+        <v>102.1</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1039,11 +1041,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>44197</v>
+      <c r="A50" s="4" t="n">
+        <v>44228</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>101.06</v>
+        <v>101.4</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1051,11 +1053,11 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="n">
-        <v>44166</v>
+      <c r="A51" s="2" t="n">
+        <v>44197</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>100.7</v>
+        <v>101.06</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1064,10 +1066,10 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>99.81999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1075,11 +1077,11 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>44105</v>
+      <c r="A53" s="4" t="n">
+        <v>44136</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>99.43000000000001</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1087,9 +1089,21 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" s="3" t="n"/>
+      <c r="A54" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>99.43000000000001</v>
+      </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="3" t="n"/>
+      <c r="C55">
+        <f>(B55/B67-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/cli.xlsx
+++ b/data/cli.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -475,11 +475,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.97</v>
+        <v>100.77</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -489,23 +489,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100.97</v>
+      </c>
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2025-02-01</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>101.04</v>
-      </c>
-      <c r="C4">
-        <f>(B4/B16-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>100.46</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -513,23 +515,23 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="4" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>100.46</v>
+      </c>
+      <c r="C6">
+        <f>(B6/B18-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B7" s="3" t="n">
         <v>100.17</v>
-      </c>
-      <c r="C6" s="1">
-        <f>(B6/B18-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n">
-        <v>45536</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>99.89</v>
       </c>
       <c r="C7" s="1">
         <f>(B7/B19-1)*100</f>
@@ -538,10 +540,10 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>99.63</v>
+        <v>99.89</v>
       </c>
       <c r="C8" s="1">
         <f>(B8/B20-1)*100</f>
@@ -549,11 +551,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45474</v>
+      <c r="A9" s="4" t="n">
+        <v>45505</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>99.38</v>
+        <v>99.63</v>
       </c>
       <c r="C9" s="1">
         <f>(B9/B21-1)*100</f>
@@ -561,11 +563,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>45444</v>
+      <c r="A10" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>99.16</v>
+        <v>99.38</v>
       </c>
       <c r="C10" s="1">
         <f>(B10/B22-1)*100</f>
@@ -574,10 +576,10 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>98.95</v>
+        <v>99.16</v>
       </c>
       <c r="C11" s="1">
         <f>(B11/B23-1)*100</f>
@@ -585,11 +587,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45383</v>
+      <c r="A12" s="4" t="n">
+        <v>45413</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>98.75</v>
+        <v>98.95</v>
       </c>
       <c r="C12" s="1">
         <f>(B12/B24-1)*100</f>
@@ -597,11 +599,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n">
-        <v>45352</v>
+      <c r="A13" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>98.55</v>
+        <v>98.75</v>
       </c>
       <c r="C13" s="1">
         <f>(B13/B25-1)*100</f>
@@ -610,10 +612,10 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>98.34</v>
+        <v>98.55</v>
       </c>
       <c r="C14" s="1">
         <f>(B14/B26-1)*100</f>
@@ -621,11 +623,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45292</v>
+      <c r="A15" s="4" t="n">
+        <v>45323</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>98.15000000000001</v>
+        <v>98.34</v>
       </c>
       <c r="C15" s="1">
         <f>(B15/B27-1)*100</f>
@@ -633,11 +635,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
-        <v>45261</v>
+      <c r="A16" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>97.98</v>
+        <v>98.15000000000001</v>
       </c>
       <c r="C16" s="1">
         <f>(B16/B28-1)*100</f>
@@ -646,10 +648,10 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>97.86</v>
+        <v>97.98</v>
       </c>
       <c r="C17" s="1">
         <f>(B17/B29-1)*100</f>
@@ -657,11 +659,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45200</v>
+      <c r="A18" s="4" t="n">
+        <v>45231</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>97.81</v>
+        <v>97.86</v>
       </c>
       <c r="C18" s="1">
         <f>(B18/B30-1)*100</f>
@@ -669,11 +671,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n">
-        <v>45170</v>
+      <c r="A19" s="2" t="n">
+        <v>45200</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>97.83</v>
+        <v>97.81</v>
       </c>
       <c r="C19" s="1">
         <f>(B19/B31-1)*100</f>
@@ -682,10 +684,10 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>97.87</v>
+        <v>97.83</v>
       </c>
       <c r="C20" s="1">
         <f>(B20/B32-1)*100</f>
@@ -693,11 +695,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45108</v>
+      <c r="A21" s="4" t="n">
+        <v>45139</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>97.92</v>
+        <v>97.87</v>
       </c>
       <c r="C21" s="1">
         <f>(B21/B33-1)*100</f>
@@ -705,11 +707,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n">
-        <v>45078</v>
+      <c r="A22" s="2" t="n">
+        <v>45108</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>97.97</v>
+        <v>97.92</v>
       </c>
       <c r="C22" s="1">
         <f>(B22/B34-1)*100</f>
@@ -718,10 +720,10 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>98.03</v>
+        <v>97.97</v>
       </c>
       <c r="C23" s="1">
         <f>(B23/B35-1)*100</f>
@@ -729,11 +731,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45017</v>
+      <c r="A24" s="4" t="n">
+        <v>45047</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>98.09</v>
+        <v>98.03</v>
       </c>
       <c r="C24" s="1">
         <f>(B24/B36-1)*100</f>
@@ -741,11 +743,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n">
-        <v>44986</v>
+      <c r="A25" s="2" t="n">
+        <v>45017</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>98.16</v>
+        <v>98.09</v>
       </c>
       <c r="C25" s="1">
         <f>(B25/B37-1)*100</f>
@@ -754,10 +756,10 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>98.26000000000001</v>
+        <v>98.16</v>
       </c>
       <c r="C26" s="1">
         <f>(B26/B38-1)*100</f>
@@ -765,11 +767,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>44927</v>
+      <c r="A27" s="4" t="n">
+        <v>44958</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>98.38</v>
+        <v>98.26000000000001</v>
       </c>
       <c r="C27" s="1">
         <f>(B27/B39-1)*100</f>
@@ -777,11 +779,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
-        <v>44896</v>
+      <c r="A28" s="2" t="n">
+        <v>44927</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>98.53</v>
+        <v>98.38</v>
       </c>
       <c r="C28" s="1">
         <f>(B28/B40-1)*100</f>
@@ -790,10 +792,10 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>98.73</v>
+        <v>98.53</v>
       </c>
       <c r="C29" s="1">
         <f>(B29/B41-1)*100</f>
@@ -801,11 +803,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>44835</v>
+      <c r="A30" s="4" t="n">
+        <v>44866</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>99.03</v>
+        <v>98.73</v>
       </c>
       <c r="C30" s="1">
         <f>(B30/B42-1)*100</f>
@@ -813,11 +815,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="n">
-        <v>44805</v>
+      <c r="A31" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>99.38</v>
+        <v>99.03</v>
       </c>
       <c r="C31" s="1">
         <f>(B31/B43-1)*100</f>
@@ -826,10 +828,10 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>99.75</v>
+        <v>99.38</v>
       </c>
       <c r="C32" s="1">
         <f>(B32/B44-1)*100</f>
@@ -837,11 +839,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>44743</v>
+      <c r="A33" s="4" t="n">
+        <v>44774</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>100.25</v>
+        <v>99.75</v>
       </c>
       <c r="C33" s="1">
         <f>(B33/B45-1)*100</f>
@@ -849,11 +851,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
-        <v>44713</v>
+      <c r="A34" s="2" t="n">
+        <v>44743</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>100.82</v>
+        <v>100.25</v>
       </c>
       <c r="C34" s="1">
         <f>(B34/B46-1)*100</f>
@@ -862,10 +864,10 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>101.39</v>
+        <v>100.82</v>
       </c>
       <c r="C35" s="1">
         <f>(B35/B47-1)*100</f>
@@ -873,11 +875,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>44652</v>
+      <c r="A36" s="4" t="n">
+        <v>44682</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>101.88</v>
+        <v>101.39</v>
       </c>
       <c r="C36" s="1">
         <f>(B36/B48-1)*100</f>
@@ -885,11 +887,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="n">
-        <v>44621</v>
+      <c r="A37" s="2" t="n">
+        <v>44652</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>102.3</v>
+        <v>101.88</v>
       </c>
       <c r="C37" s="1">
         <f>(B37/B49-1)*100</f>
@@ -898,10 +900,10 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>102.54</v>
+        <v>102.3</v>
       </c>
       <c r="C38" s="1">
         <f>(B38/B50-1)*100</f>
@@ -909,11 +911,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>44562</v>
+      <c r="A39" s="4" t="n">
+        <v>44593</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>102.73</v>
+        <v>102.54</v>
       </c>
       <c r="C39" s="1">
         <f>(B39/B51-1)*100</f>
@@ -921,11 +923,11 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="n">
-        <v>44531</v>
+      <c r="A40" s="2" t="n">
+        <v>44562</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>102.92</v>
+        <v>102.73</v>
       </c>
       <c r="C40" s="1">
         <f>(B40/B52-1)*100</f>
@@ -934,10 +936,10 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>103.05</v>
+        <v>102.92</v>
       </c>
       <c r="C41" s="1">
         <f>(B41/B53-1)*100</f>
@@ -945,23 +947,23 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="4" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>103.05</v>
+      </c>
+      <c r="C42" s="1">
+        <f>(B42/B54-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B43" s="3" t="n">
         <v>103.14</v>
-      </c>
-      <c r="C42">
-        <f>(B42/B54-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="4" t="n">
-        <v>44440</v>
-      </c>
-      <c r="B43" s="3" t="n">
-        <v>103.21</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -970,10 +972,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>103.26</v>
+        <v>103.21</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -981,11 +983,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>44378</v>
+      <c r="A45" s="4" t="n">
+        <v>44409</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>103.28</v>
+        <v>103.26</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -993,11 +995,11 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n">
-        <v>44348</v>
+      <c r="A46" s="2" t="n">
+        <v>44378</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>103.17</v>
+        <v>103.28</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1006,10 +1008,10 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>102.49</v>
+        <v>103.17</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1017,11 +1019,11 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>44287</v>
+      <c r="A48" s="4" t="n">
+        <v>44317</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>102.11</v>
+        <v>102.49</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1029,11 +1031,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="n">
-        <v>44256</v>
+      <c r="A49" s="2" t="n">
+        <v>44287</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>102.1</v>
+        <v>102.11</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1042,10 +1044,10 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>101.4</v>
+        <v>102.1</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1053,11 +1055,11 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>44197</v>
+      <c r="A51" s="4" t="n">
+        <v>44228</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>101.06</v>
+        <v>101.4</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1065,11 +1067,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n">
-        <v>44166</v>
+      <c r="A52" s="2" t="n">
+        <v>44197</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>100.7</v>
+        <v>101.06</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1078,10 +1080,10 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>99.81999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1089,11 +1091,11 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>44105</v>
+      <c r="A54" s="4" t="n">
+        <v>44136</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>99.43000000000001</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1101,9 +1103,21 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" s="3" t="n"/>
+      <c r="A55" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>99.43000000000001</v>
+      </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="3" t="n"/>
+      <c r="C56">
+        <f>(B56/B68-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/cli.xlsx
+++ b/data/cli.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,11 +461,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.77</v>
+        <v>100.93</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -475,7 +475,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -489,11 +489,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.97</v>
+        <v>100.77</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -503,23 +503,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100.97</v>
+      </c>
+      <c r="C5">
+        <f>(B5/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>2025-02-01</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>101.04</v>
-      </c>
-      <c r="C5">
-        <f>(B5/B17-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>100.46</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -527,23 +529,23 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="4" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>100.46</v>
+      </c>
+      <c r="C7">
+        <f>(B7/B19-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B8" s="3" t="n">
         <v>100.17</v>
-      </c>
-      <c r="C7" s="1">
-        <f>(B7/B19-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>45536</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>99.89</v>
       </c>
       <c r="C8" s="1">
         <f>(B8/B20-1)*100</f>
@@ -552,10 +554,10 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>99.63</v>
+        <v>99.89</v>
       </c>
       <c r="C9" s="1">
         <f>(B9/B21-1)*100</f>
@@ -563,11 +565,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45474</v>
+      <c r="A10" s="4" t="n">
+        <v>45505</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>99.38</v>
+        <v>99.63</v>
       </c>
       <c r="C10" s="1">
         <f>(B10/B22-1)*100</f>
@@ -575,11 +577,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n">
-        <v>45444</v>
+      <c r="A11" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>99.16</v>
+        <v>99.38</v>
       </c>
       <c r="C11" s="1">
         <f>(B11/B23-1)*100</f>
@@ -588,10 +590,10 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>98.95</v>
+        <v>99.16</v>
       </c>
       <c r="C12" s="1">
         <f>(B12/B24-1)*100</f>
@@ -599,11 +601,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45383</v>
+      <c r="A13" s="4" t="n">
+        <v>45413</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>98.75</v>
+        <v>98.95</v>
       </c>
       <c r="C13" s="1">
         <f>(B13/B25-1)*100</f>
@@ -611,11 +613,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
-        <v>45352</v>
+      <c r="A14" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>98.55</v>
+        <v>98.75</v>
       </c>
       <c r="C14" s="1">
         <f>(B14/B26-1)*100</f>
@@ -624,10 +626,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>98.34</v>
+        <v>98.55</v>
       </c>
       <c r="C15" s="1">
         <f>(B15/B27-1)*100</f>
@@ -635,11 +637,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45292</v>
+      <c r="A16" s="4" t="n">
+        <v>45323</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>98.15000000000001</v>
+        <v>98.34</v>
       </c>
       <c r="C16" s="1">
         <f>(B16/B28-1)*100</f>
@@ -647,11 +649,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
-        <v>45261</v>
+      <c r="A17" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>97.98</v>
+        <v>98.15000000000001</v>
       </c>
       <c r="C17" s="1">
         <f>(B17/B29-1)*100</f>
@@ -660,10 +662,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>97.86</v>
+        <v>97.98</v>
       </c>
       <c r="C18" s="1">
         <f>(B18/B30-1)*100</f>
@@ -671,11 +673,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45200</v>
+      <c r="A19" s="4" t="n">
+        <v>45231</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>97.81</v>
+        <v>97.86</v>
       </c>
       <c r="C19" s="1">
         <f>(B19/B31-1)*100</f>
@@ -683,11 +685,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
-        <v>45170</v>
+      <c r="A20" s="2" t="n">
+        <v>45200</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>97.83</v>
+        <v>97.81</v>
       </c>
       <c r="C20" s="1">
         <f>(B20/B32-1)*100</f>
@@ -696,10 +698,10 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>97.87</v>
+        <v>97.83</v>
       </c>
       <c r="C21" s="1">
         <f>(B21/B33-1)*100</f>
@@ -707,11 +709,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45108</v>
+      <c r="A22" s="4" t="n">
+        <v>45139</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>97.92</v>
+        <v>97.87</v>
       </c>
       <c r="C22" s="1">
         <f>(B22/B34-1)*100</f>
@@ -719,11 +721,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n">
-        <v>45078</v>
+      <c r="A23" s="2" t="n">
+        <v>45108</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>97.97</v>
+        <v>97.92</v>
       </c>
       <c r="C23" s="1">
         <f>(B23/B35-1)*100</f>
@@ -732,10 +734,10 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>98.03</v>
+        <v>97.97</v>
       </c>
       <c r="C24" s="1">
         <f>(B24/B36-1)*100</f>
@@ -743,11 +745,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45017</v>
+      <c r="A25" s="4" t="n">
+        <v>45047</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>98.09</v>
+        <v>98.03</v>
       </c>
       <c r="C25" s="1">
         <f>(B25/B37-1)*100</f>
@@ -755,11 +757,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
-        <v>44986</v>
+      <c r="A26" s="2" t="n">
+        <v>45017</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>98.16</v>
+        <v>98.09</v>
       </c>
       <c r="C26" s="1">
         <f>(B26/B38-1)*100</f>
@@ -768,10 +770,10 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>98.26000000000001</v>
+        <v>98.16</v>
       </c>
       <c r="C27" s="1">
         <f>(B27/B39-1)*100</f>
@@ -779,11 +781,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>44927</v>
+      <c r="A28" s="4" t="n">
+        <v>44958</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>98.38</v>
+        <v>98.26000000000001</v>
       </c>
       <c r="C28" s="1">
         <f>(B28/B40-1)*100</f>
@@ -791,11 +793,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n">
-        <v>44896</v>
+      <c r="A29" s="2" t="n">
+        <v>44927</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>98.53</v>
+        <v>98.38</v>
       </c>
       <c r="C29" s="1">
         <f>(B29/B41-1)*100</f>
@@ -804,10 +806,10 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>98.73</v>
+        <v>98.53</v>
       </c>
       <c r="C30" s="1">
         <f>(B30/B42-1)*100</f>
@@ -815,11 +817,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>44835</v>
+      <c r="A31" s="4" t="n">
+        <v>44866</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>99.03</v>
+        <v>98.73</v>
       </c>
       <c r="C31" s="1">
         <f>(B31/B43-1)*100</f>
@@ -827,11 +829,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
-        <v>44805</v>
+      <c r="A32" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>99.38</v>
+        <v>99.03</v>
       </c>
       <c r="C32" s="1">
         <f>(B32/B44-1)*100</f>
@@ -840,10 +842,10 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>99.75</v>
+        <v>99.38</v>
       </c>
       <c r="C33" s="1">
         <f>(B33/B45-1)*100</f>
@@ -851,11 +853,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>44743</v>
+      <c r="A34" s="4" t="n">
+        <v>44774</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>100.25</v>
+        <v>99.75</v>
       </c>
       <c r="C34" s="1">
         <f>(B34/B46-1)*100</f>
@@ -863,11 +865,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="n">
-        <v>44713</v>
+      <c r="A35" s="2" t="n">
+        <v>44743</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>100.82</v>
+        <v>100.25</v>
       </c>
       <c r="C35" s="1">
         <f>(B35/B47-1)*100</f>
@@ -876,10 +878,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>101.39</v>
+        <v>100.82</v>
       </c>
       <c r="C36" s="1">
         <f>(B36/B48-1)*100</f>
@@ -887,11 +889,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>44652</v>
+      <c r="A37" s="4" t="n">
+        <v>44682</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>101.88</v>
+        <v>101.39</v>
       </c>
       <c r="C37" s="1">
         <f>(B37/B49-1)*100</f>
@@ -899,11 +901,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n">
-        <v>44621</v>
+      <c r="A38" s="2" t="n">
+        <v>44652</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>102.3</v>
+        <v>101.88</v>
       </c>
       <c r="C38" s="1">
         <f>(B38/B50-1)*100</f>
@@ -912,10 +914,10 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>102.54</v>
+        <v>102.3</v>
       </c>
       <c r="C39" s="1">
         <f>(B39/B51-1)*100</f>
@@ -923,11 +925,11 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>44562</v>
+      <c r="A40" s="4" t="n">
+        <v>44593</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>102.73</v>
+        <v>102.54</v>
       </c>
       <c r="C40" s="1">
         <f>(B40/B52-1)*100</f>
@@ -935,11 +937,11 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="n">
-        <v>44531</v>
+      <c r="A41" s="2" t="n">
+        <v>44562</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>102.92</v>
+        <v>102.73</v>
       </c>
       <c r="C41" s="1">
         <f>(B41/B53-1)*100</f>
@@ -948,10 +950,10 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>103.05</v>
+        <v>102.92</v>
       </c>
       <c r="C42" s="1">
         <f>(B42/B54-1)*100</f>
@@ -959,23 +961,23 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="4" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>103.05</v>
+      </c>
+      <c r="C43" s="1">
+        <f>(B43/B55-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B44" s="3" t="n">
         <v>103.14</v>
-      </c>
-      <c r="C43">
-        <f>(B43/B55-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="4" t="n">
-        <v>44440</v>
-      </c>
-      <c r="B44" s="3" t="n">
-        <v>103.21</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -984,10 +986,10 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>103.26</v>
+        <v>103.21</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -995,11 +997,11 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44378</v>
+      <c r="A46" s="4" t="n">
+        <v>44409</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>103.28</v>
+        <v>103.26</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1007,11 +1009,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="n">
-        <v>44348</v>
+      <c r="A47" s="2" t="n">
+        <v>44378</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>103.17</v>
+        <v>103.28</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1020,10 +1022,10 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>102.49</v>
+        <v>103.17</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1031,11 +1033,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>44287</v>
+      <c r="A49" s="4" t="n">
+        <v>44317</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>102.11</v>
+        <v>102.49</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1043,11 +1045,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="n">
-        <v>44256</v>
+      <c r="A50" s="2" t="n">
+        <v>44287</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>102.1</v>
+        <v>102.11</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1056,10 +1058,10 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>101.4</v>
+        <v>102.1</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1067,11 +1069,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>44197</v>
+      <c r="A52" s="4" t="n">
+        <v>44228</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>101.06</v>
+        <v>101.4</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1079,11 +1081,11 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="n">
-        <v>44166</v>
+      <c r="A53" s="2" t="n">
+        <v>44197</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>100.7</v>
+        <v>101.06</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1092,10 +1094,10 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>99.81999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1103,11 +1105,11 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>44105</v>
+      <c r="A55" s="4" t="n">
+        <v>44136</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>99.43000000000001</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1115,9 +1117,21 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" s="3" t="n"/>
+      <c r="A56" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>99.43000000000001</v>
+      </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="3" t="n"/>
+      <c r="C57">
+        <f>(B57/B69-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/cli.xlsx
+++ b/data/cli.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,11 +461,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.93</v>
+        <v>100.91</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -475,11 +475,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.77</v>
+        <v>100.93</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -489,7 +489,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -503,11 +503,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.97</v>
+        <v>100.77</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -517,23 +517,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100.97</v>
+      </c>
+      <c r="C6">
+        <f>(B6/B18-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>2025-02-01</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>101.04</v>
-      </c>
-      <c r="C6">
-        <f>(B6/B18-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>100.46</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -541,23 +543,23 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="4" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>100.46</v>
+      </c>
+      <c r="C8">
+        <f>(B8/B20-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B9" s="3" t="n">
         <v>100.17</v>
-      </c>
-      <c r="C8" s="1">
-        <f>(B8/B20-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="n">
-        <v>45536</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>99.89</v>
       </c>
       <c r="C9" s="1">
         <f>(B9/B21-1)*100</f>
@@ -566,10 +568,10 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>99.63</v>
+        <v>99.89</v>
       </c>
       <c r="C10" s="1">
         <f>(B10/B22-1)*100</f>
@@ -577,11 +579,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45474</v>
+      <c r="A11" s="4" t="n">
+        <v>45505</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>99.38</v>
+        <v>99.63</v>
       </c>
       <c r="C11" s="1">
         <f>(B11/B23-1)*100</f>
@@ -589,11 +591,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
-        <v>45444</v>
+      <c r="A12" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>99.16</v>
+        <v>99.38</v>
       </c>
       <c r="C12" s="1">
         <f>(B12/B24-1)*100</f>
@@ -602,10 +604,10 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>98.95</v>
+        <v>99.16</v>
       </c>
       <c r="C13" s="1">
         <f>(B13/B25-1)*100</f>
@@ -613,11 +615,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45383</v>
+      <c r="A14" s="4" t="n">
+        <v>45413</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>98.75</v>
+        <v>98.95</v>
       </c>
       <c r="C14" s="1">
         <f>(B14/B26-1)*100</f>
@@ -625,11 +627,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
-        <v>45352</v>
+      <c r="A15" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>98.55</v>
+        <v>98.75</v>
       </c>
       <c r="C15" s="1">
         <f>(B15/B27-1)*100</f>
@@ -638,10 +640,10 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>98.34</v>
+        <v>98.55</v>
       </c>
       <c r="C16" s="1">
         <f>(B16/B28-1)*100</f>
@@ -649,11 +651,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45292</v>
+      <c r="A17" s="4" t="n">
+        <v>45323</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>98.15000000000001</v>
+        <v>98.34</v>
       </c>
       <c r="C17" s="1">
         <f>(B17/B29-1)*100</f>
@@ -661,11 +663,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
-        <v>45261</v>
+      <c r="A18" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>97.98</v>
+        <v>98.15000000000001</v>
       </c>
       <c r="C18" s="1">
         <f>(B18/B30-1)*100</f>
@@ -674,10 +676,10 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>97.86</v>
+        <v>97.98</v>
       </c>
       <c r="C19" s="1">
         <f>(B19/B31-1)*100</f>
@@ -685,11 +687,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45200</v>
+      <c r="A20" s="4" t="n">
+        <v>45231</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>97.81</v>
+        <v>97.86</v>
       </c>
       <c r="C20" s="1">
         <f>(B20/B32-1)*100</f>
@@ -697,11 +699,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n">
-        <v>45170</v>
+      <c r="A21" s="2" t="n">
+        <v>45200</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>97.83</v>
+        <v>97.81</v>
       </c>
       <c r="C21" s="1">
         <f>(B21/B33-1)*100</f>
@@ -710,10 +712,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>97.87</v>
+        <v>97.83</v>
       </c>
       <c r="C22" s="1">
         <f>(B22/B34-1)*100</f>
@@ -721,11 +723,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45108</v>
+      <c r="A23" s="4" t="n">
+        <v>45139</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>97.92</v>
+        <v>97.87</v>
       </c>
       <c r="C23" s="1">
         <f>(B23/B35-1)*100</f>
@@ -733,11 +735,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
-        <v>45078</v>
+      <c r="A24" s="2" t="n">
+        <v>45108</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>97.97</v>
+        <v>97.92</v>
       </c>
       <c r="C24" s="1">
         <f>(B24/B36-1)*100</f>
@@ -746,10 +748,10 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>98.03</v>
+        <v>97.97</v>
       </c>
       <c r="C25" s="1">
         <f>(B25/B37-1)*100</f>
@@ -757,11 +759,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45017</v>
+      <c r="A26" s="4" t="n">
+        <v>45047</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>98.09</v>
+        <v>98.03</v>
       </c>
       <c r="C26" s="1">
         <f>(B26/B38-1)*100</f>
@@ -769,11 +771,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="n">
-        <v>44986</v>
+      <c r="A27" s="2" t="n">
+        <v>45017</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>98.16</v>
+        <v>98.09</v>
       </c>
       <c r="C27" s="1">
         <f>(B27/B39-1)*100</f>
@@ -782,10 +784,10 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>98.26000000000001</v>
+        <v>98.16</v>
       </c>
       <c r="C28" s="1">
         <f>(B28/B40-1)*100</f>
@@ -793,11 +795,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>44927</v>
+      <c r="A29" s="4" t="n">
+        <v>44958</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>98.38</v>
+        <v>98.26000000000001</v>
       </c>
       <c r="C29" s="1">
         <f>(B29/B41-1)*100</f>
@@ -805,11 +807,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
-        <v>44896</v>
+      <c r="A30" s="2" t="n">
+        <v>44927</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>98.53</v>
+        <v>98.38</v>
       </c>
       <c r="C30" s="1">
         <f>(B30/B42-1)*100</f>
@@ -818,10 +820,10 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>98.73</v>
+        <v>98.53</v>
       </c>
       <c r="C31" s="1">
         <f>(B31/B43-1)*100</f>
@@ -829,11 +831,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>44835</v>
+      <c r="A32" s="4" t="n">
+        <v>44866</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>99.03</v>
+        <v>98.73</v>
       </c>
       <c r="C32" s="1">
         <f>(B32/B44-1)*100</f>
@@ -841,11 +843,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="n">
-        <v>44805</v>
+      <c r="A33" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>99.38</v>
+        <v>99.03</v>
       </c>
       <c r="C33" s="1">
         <f>(B33/B45-1)*100</f>
@@ -854,10 +856,10 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>99.75</v>
+        <v>99.38</v>
       </c>
       <c r="C34" s="1">
         <f>(B34/B46-1)*100</f>
@@ -865,11 +867,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>44743</v>
+      <c r="A35" s="4" t="n">
+        <v>44774</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>100.25</v>
+        <v>99.75</v>
       </c>
       <c r="C35" s="1">
         <f>(B35/B47-1)*100</f>
@@ -877,11 +879,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n">
-        <v>44713</v>
+      <c r="A36" s="2" t="n">
+        <v>44743</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>100.82</v>
+        <v>100.25</v>
       </c>
       <c r="C36" s="1">
         <f>(B36/B48-1)*100</f>
@@ -890,10 +892,10 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>101.39</v>
+        <v>100.82</v>
       </c>
       <c r="C37" s="1">
         <f>(B37/B49-1)*100</f>
@@ -901,11 +903,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>44652</v>
+      <c r="A38" s="4" t="n">
+        <v>44682</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>101.88</v>
+        <v>101.39</v>
       </c>
       <c r="C38" s="1">
         <f>(B38/B50-1)*100</f>
@@ -913,11 +915,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="n">
-        <v>44621</v>
+      <c r="A39" s="2" t="n">
+        <v>44652</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>102.3</v>
+        <v>101.88</v>
       </c>
       <c r="C39" s="1">
         <f>(B39/B51-1)*100</f>
@@ -926,10 +928,10 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>102.54</v>
+        <v>102.3</v>
       </c>
       <c r="C40" s="1">
         <f>(B40/B52-1)*100</f>
@@ -937,11 +939,11 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>44562</v>
+      <c r="A41" s="4" t="n">
+        <v>44593</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>102.73</v>
+        <v>102.54</v>
       </c>
       <c r="C41" s="1">
         <f>(B41/B53-1)*100</f>
@@ -949,11 +951,11 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="n">
-        <v>44531</v>
+      <c r="A42" s="2" t="n">
+        <v>44562</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>102.92</v>
+        <v>102.73</v>
       </c>
       <c r="C42" s="1">
         <f>(B42/B54-1)*100</f>
@@ -962,10 +964,10 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>103.05</v>
+        <v>102.92</v>
       </c>
       <c r="C43" s="1">
         <f>(B43/B55-1)*100</f>
@@ -973,23 +975,23 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="4" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>103.05</v>
+      </c>
+      <c r="C44" s="1">
+        <f>(B44/B56-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B45" s="3" t="n">
         <v>103.14</v>
-      </c>
-      <c r="C44">
-        <f>(B44/B56-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="n">
-        <v>44440</v>
-      </c>
-      <c r="B45" s="3" t="n">
-        <v>103.21</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -998,10 +1000,10 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>103.26</v>
+        <v>103.21</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1009,11 +1011,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>44378</v>
+      <c r="A47" s="4" t="n">
+        <v>44409</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>103.28</v>
+        <v>103.26</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1021,11 +1023,11 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="n">
-        <v>44348</v>
+      <c r="A48" s="2" t="n">
+        <v>44378</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>103.17</v>
+        <v>103.28</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1034,10 +1036,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>102.49</v>
+        <v>103.17</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1045,11 +1047,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>44287</v>
+      <c r="A50" s="4" t="n">
+        <v>44317</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>102.11</v>
+        <v>102.49</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1057,11 +1059,11 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="n">
-        <v>44256</v>
+      <c r="A51" s="2" t="n">
+        <v>44287</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>102.1</v>
+        <v>102.11</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1070,10 +1072,10 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>101.4</v>
+        <v>102.1</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1081,11 +1083,11 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>44197</v>
+      <c r="A53" s="4" t="n">
+        <v>44228</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>101.06</v>
+        <v>101.4</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1093,11 +1095,11 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="n">
-        <v>44166</v>
+      <c r="A54" s="2" t="n">
+        <v>44197</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>100.7</v>
+        <v>101.06</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1106,10 +1108,10 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>99.81999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1117,11 +1119,11 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>44105</v>
+      <c r="A56" s="4" t="n">
+        <v>44136</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>99.43000000000001</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1129,9 +1131,21 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" s="3" t="n"/>
+      <c r="A57" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>99.43000000000001</v>
+      </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="3" t="n"/>
+      <c r="C58">
+        <f>(B58/B70-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/cli.xlsx
+++ b/data/cli.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,11 +461,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.91</v>
+        <v>101.25</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -475,11 +475,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.93</v>
+        <v>100.91</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -489,11 +489,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.77</v>
+        <v>100.93</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -503,7 +503,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -517,11 +517,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.97</v>
+        <v>100.77</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -531,23 +531,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100.97</v>
+      </c>
+      <c r="C7">
+        <f>(B7/B19-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>2025-02-01</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>101.04</v>
-      </c>
-      <c r="C7">
-        <f>(B7/B19-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>100.46</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -555,23 +557,23 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="4" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>100.46</v>
+      </c>
+      <c r="C9">
+        <f>(B9/B21-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B10" s="3" t="n">
         <v>100.17</v>
-      </c>
-      <c r="C9" s="1">
-        <f>(B9/B21-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>45536</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>99.89</v>
       </c>
       <c r="C10" s="1">
         <f>(B10/B22-1)*100</f>
@@ -580,10 +582,10 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>99.63</v>
+        <v>99.89</v>
       </c>
       <c r="C11" s="1">
         <f>(B11/B23-1)*100</f>
@@ -591,11 +593,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45474</v>
+      <c r="A12" s="4" t="n">
+        <v>45505</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>99.38</v>
+        <v>99.63</v>
       </c>
       <c r="C12" s="1">
         <f>(B12/B24-1)*100</f>
@@ -603,11 +605,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n">
-        <v>45444</v>
+      <c r="A13" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>99.16</v>
+        <v>99.38</v>
       </c>
       <c r="C13" s="1">
         <f>(B13/B25-1)*100</f>
@@ -616,10 +618,10 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>98.95</v>
+        <v>99.16</v>
       </c>
       <c r="C14" s="1">
         <f>(B14/B26-1)*100</f>
@@ -627,11 +629,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45383</v>
+      <c r="A15" s="4" t="n">
+        <v>45413</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>98.75</v>
+        <v>98.95</v>
       </c>
       <c r="C15" s="1">
         <f>(B15/B27-1)*100</f>
@@ -639,11 +641,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
-        <v>45352</v>
+      <c r="A16" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>98.55</v>
+        <v>98.75</v>
       </c>
       <c r="C16" s="1">
         <f>(B16/B28-1)*100</f>
@@ -652,10 +654,10 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>98.34</v>
+        <v>98.55</v>
       </c>
       <c r="C17" s="1">
         <f>(B17/B29-1)*100</f>
@@ -663,11 +665,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45292</v>
+      <c r="A18" s="4" t="n">
+        <v>45323</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>98.15000000000001</v>
+        <v>98.34</v>
       </c>
       <c r="C18" s="1">
         <f>(B18/B30-1)*100</f>
@@ -675,11 +677,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n">
-        <v>45261</v>
+      <c r="A19" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>97.98</v>
+        <v>98.15000000000001</v>
       </c>
       <c r="C19" s="1">
         <f>(B19/B31-1)*100</f>
@@ -688,10 +690,10 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>97.86</v>
+        <v>97.98</v>
       </c>
       <c r="C20" s="1">
         <f>(B20/B32-1)*100</f>
@@ -699,11 +701,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45200</v>
+      <c r="A21" s="4" t="n">
+        <v>45231</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>97.81</v>
+        <v>97.86</v>
       </c>
       <c r="C21" s="1">
         <f>(B21/B33-1)*100</f>
@@ -711,11 +713,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n">
-        <v>45170</v>
+      <c r="A22" s="2" t="n">
+        <v>45200</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>97.83</v>
+        <v>97.81</v>
       </c>
       <c r="C22" s="1">
         <f>(B22/B34-1)*100</f>
@@ -724,10 +726,10 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>97.87</v>
+        <v>97.83</v>
       </c>
       <c r="C23" s="1">
         <f>(B23/B35-1)*100</f>
@@ -735,11 +737,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45108</v>
+      <c r="A24" s="4" t="n">
+        <v>45139</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>97.92</v>
+        <v>97.87</v>
       </c>
       <c r="C24" s="1">
         <f>(B24/B36-1)*100</f>
@@ -747,11 +749,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n">
-        <v>45078</v>
+      <c r="A25" s="2" t="n">
+        <v>45108</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>97.97</v>
+        <v>97.92</v>
       </c>
       <c r="C25" s="1">
         <f>(B25/B37-1)*100</f>
@@ -760,10 +762,10 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>98.03</v>
+        <v>97.97</v>
       </c>
       <c r="C26" s="1">
         <f>(B26/B38-1)*100</f>
@@ -771,11 +773,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45017</v>
+      <c r="A27" s="4" t="n">
+        <v>45047</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>98.09</v>
+        <v>98.03</v>
       </c>
       <c r="C27" s="1">
         <f>(B27/B39-1)*100</f>
@@ -783,11 +785,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
-        <v>44986</v>
+      <c r="A28" s="2" t="n">
+        <v>45017</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>98.16</v>
+        <v>98.09</v>
       </c>
       <c r="C28" s="1">
         <f>(B28/B40-1)*100</f>
@@ -796,10 +798,10 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>98.26000000000001</v>
+        <v>98.16</v>
       </c>
       <c r="C29" s="1">
         <f>(B29/B41-1)*100</f>
@@ -807,11 +809,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>44927</v>
+      <c r="A30" s="4" t="n">
+        <v>44958</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>98.38</v>
+        <v>98.26000000000001</v>
       </c>
       <c r="C30" s="1">
         <f>(B30/B42-1)*100</f>
@@ -819,11 +821,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="n">
-        <v>44896</v>
+      <c r="A31" s="2" t="n">
+        <v>44927</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>98.53</v>
+        <v>98.38</v>
       </c>
       <c r="C31" s="1">
         <f>(B31/B43-1)*100</f>
@@ -832,10 +834,10 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>98.73</v>
+        <v>98.53</v>
       </c>
       <c r="C32" s="1">
         <f>(B32/B44-1)*100</f>
@@ -843,11 +845,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>44835</v>
+      <c r="A33" s="4" t="n">
+        <v>44866</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>99.03</v>
+        <v>98.73</v>
       </c>
       <c r="C33" s="1">
         <f>(B33/B45-1)*100</f>
@@ -855,11 +857,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
-        <v>44805</v>
+      <c r="A34" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>99.38</v>
+        <v>99.03</v>
       </c>
       <c r="C34" s="1">
         <f>(B34/B46-1)*100</f>
@@ -868,10 +870,10 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>99.75</v>
+        <v>99.38</v>
       </c>
       <c r="C35" s="1">
         <f>(B35/B47-1)*100</f>
@@ -879,11 +881,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>44743</v>
+      <c r="A36" s="4" t="n">
+        <v>44774</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>100.25</v>
+        <v>99.75</v>
       </c>
       <c r="C36" s="1">
         <f>(B36/B48-1)*100</f>
@@ -891,11 +893,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="n">
-        <v>44713</v>
+      <c r="A37" s="2" t="n">
+        <v>44743</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>100.82</v>
+        <v>100.25</v>
       </c>
       <c r="C37" s="1">
         <f>(B37/B49-1)*100</f>
@@ -904,10 +906,10 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>101.39</v>
+        <v>100.82</v>
       </c>
       <c r="C38" s="1">
         <f>(B38/B50-1)*100</f>
@@ -915,11 +917,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>44652</v>
+      <c r="A39" s="4" t="n">
+        <v>44682</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>101.88</v>
+        <v>101.39</v>
       </c>
       <c r="C39" s="1">
         <f>(B39/B51-1)*100</f>
@@ -927,11 +929,11 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="n">
-        <v>44621</v>
+      <c r="A40" s="2" t="n">
+        <v>44652</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>102.3</v>
+        <v>101.88</v>
       </c>
       <c r="C40" s="1">
         <f>(B40/B52-1)*100</f>
@@ -940,10 +942,10 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>102.54</v>
+        <v>102.3</v>
       </c>
       <c r="C41" s="1">
         <f>(B41/B53-1)*100</f>
@@ -951,11 +953,11 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>44562</v>
+      <c r="A42" s="4" t="n">
+        <v>44593</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>102.73</v>
+        <v>102.54</v>
       </c>
       <c r="C42" s="1">
         <f>(B42/B54-1)*100</f>
@@ -963,11 +965,11 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="n">
-        <v>44531</v>
+      <c r="A43" s="2" t="n">
+        <v>44562</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>102.92</v>
+        <v>102.73</v>
       </c>
       <c r="C43" s="1">
         <f>(B43/B55-1)*100</f>
@@ -976,10 +978,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>103.05</v>
+        <v>102.92</v>
       </c>
       <c r="C44" s="1">
         <f>(B44/B56-1)*100</f>
@@ -987,23 +989,23 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="4" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>103.05</v>
+      </c>
+      <c r="C45" s="1">
+        <f>(B45/B57-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B46" s="3" t="n">
         <v>103.14</v>
-      </c>
-      <c r="C45">
-        <f>(B45/B57-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="4" t="n">
-        <v>44440</v>
-      </c>
-      <c r="B46" s="3" t="n">
-        <v>103.21</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1012,10 +1014,10 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>103.26</v>
+        <v>103.21</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1023,11 +1025,11 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>44378</v>
+      <c r="A48" s="4" t="n">
+        <v>44409</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>103.28</v>
+        <v>103.26</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1035,11 +1037,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="n">
-        <v>44348</v>
+      <c r="A49" s="2" t="n">
+        <v>44378</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>103.17</v>
+        <v>103.28</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1048,10 +1050,10 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>102.49</v>
+        <v>103.17</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1059,11 +1061,11 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>44287</v>
+      <c r="A51" s="4" t="n">
+        <v>44317</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>102.11</v>
+        <v>102.49</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1071,11 +1073,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n">
-        <v>44256</v>
+      <c r="A52" s="2" t="n">
+        <v>44287</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>102.1</v>
+        <v>102.11</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1084,10 +1086,10 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>101.4</v>
+        <v>102.1</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1095,11 +1097,11 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>44197</v>
+      <c r="A54" s="4" t="n">
+        <v>44228</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>101.06</v>
+        <v>101.4</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1107,11 +1109,11 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="n">
-        <v>44166</v>
+      <c r="A55" s="2" t="n">
+        <v>44197</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>100.7</v>
+        <v>101.06</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1120,10 +1122,10 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>99.81999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1131,11 +1133,11 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>44105</v>
+      <c r="A57" s="4" t="n">
+        <v>44136</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>99.43000000000001</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1143,9 +1145,21 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" s="3" t="n"/>
+      <c r="A58" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>99.43000000000001</v>
+      </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="3" t="n"/>
+      <c r="C59">
+        <f>(B59/B71-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/cli.xlsx
+++ b/data/cli.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,11 +461,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101.25</v>
+        <v>101.35</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -475,11 +475,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.91</v>
+        <v>101.25</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -489,11 +489,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.93</v>
+        <v>100.91</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -503,11 +503,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.77</v>
+        <v>100.93</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -517,7 +517,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -531,11 +531,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.97</v>
+        <v>100.77</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -545,23 +545,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100.97</v>
+      </c>
+      <c r="C8">
+        <f>(B8/B20-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>2025-02-01</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>101.04</v>
-      </c>
-      <c r="C8">
-        <f>(B8/B20-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>100.46</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -569,23 +571,23 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="4" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>100.46</v>
+      </c>
+      <c r="C10">
+        <f>(B10/B22-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B11" s="3" t="n">
         <v>100.17</v>
-      </c>
-      <c r="C10" s="1">
-        <f>(B10/B22-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="n">
-        <v>45536</v>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>99.89</v>
       </c>
       <c r="C11" s="1">
         <f>(B11/B23-1)*100</f>
@@ -594,10 +596,10 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>99.63</v>
+        <v>99.89</v>
       </c>
       <c r="C12" s="1">
         <f>(B12/B24-1)*100</f>
@@ -605,11 +607,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45474</v>
+      <c r="A13" s="4" t="n">
+        <v>45505</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>99.38</v>
+        <v>99.63</v>
       </c>
       <c r="C13" s="1">
         <f>(B13/B25-1)*100</f>
@@ -617,11 +619,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
-        <v>45444</v>
+      <c r="A14" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>99.16</v>
+        <v>99.38</v>
       </c>
       <c r="C14" s="1">
         <f>(B14/B26-1)*100</f>
@@ -630,10 +632,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>98.95</v>
+        <v>99.16</v>
       </c>
       <c r="C15" s="1">
         <f>(B15/B27-1)*100</f>
@@ -641,11 +643,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45383</v>
+      <c r="A16" s="4" t="n">
+        <v>45413</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>98.75</v>
+        <v>98.95</v>
       </c>
       <c r="C16" s="1">
         <f>(B16/B28-1)*100</f>
@@ -653,11 +655,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
-        <v>45352</v>
+      <c r="A17" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>98.55</v>
+        <v>98.75</v>
       </c>
       <c r="C17" s="1">
         <f>(B17/B29-1)*100</f>
@@ -666,10 +668,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>98.34</v>
+        <v>98.55</v>
       </c>
       <c r="C18" s="1">
         <f>(B18/B30-1)*100</f>
@@ -677,11 +679,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45292</v>
+      <c r="A19" s="4" t="n">
+        <v>45323</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>98.15000000000001</v>
+        <v>98.34</v>
       </c>
       <c r="C19" s="1">
         <f>(B19/B31-1)*100</f>
@@ -689,11 +691,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
-        <v>45261</v>
+      <c r="A20" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>97.98</v>
+        <v>98.15000000000001</v>
       </c>
       <c r="C20" s="1">
         <f>(B20/B32-1)*100</f>
@@ -702,10 +704,10 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>97.86</v>
+        <v>97.98</v>
       </c>
       <c r="C21" s="1">
         <f>(B21/B33-1)*100</f>
@@ -713,11 +715,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45200</v>
+      <c r="A22" s="4" t="n">
+        <v>45231</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>97.81</v>
+        <v>97.86</v>
       </c>
       <c r="C22" s="1">
         <f>(B22/B34-1)*100</f>
@@ -725,11 +727,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n">
-        <v>45170</v>
+      <c r="A23" s="2" t="n">
+        <v>45200</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>97.83</v>
+        <v>97.81</v>
       </c>
       <c r="C23" s="1">
         <f>(B23/B35-1)*100</f>
@@ -738,10 +740,10 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>97.87</v>
+        <v>97.83</v>
       </c>
       <c r="C24" s="1">
         <f>(B24/B36-1)*100</f>
@@ -749,11 +751,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45108</v>
+      <c r="A25" s="4" t="n">
+        <v>45139</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>97.92</v>
+        <v>97.87</v>
       </c>
       <c r="C25" s="1">
         <f>(B25/B37-1)*100</f>
@@ -761,11 +763,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
-        <v>45078</v>
+      <c r="A26" s="2" t="n">
+        <v>45108</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>97.97</v>
+        <v>97.92</v>
       </c>
       <c r="C26" s="1">
         <f>(B26/B38-1)*100</f>
@@ -774,10 +776,10 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>98.03</v>
+        <v>97.97</v>
       </c>
       <c r="C27" s="1">
         <f>(B27/B39-1)*100</f>
@@ -785,11 +787,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45017</v>
+      <c r="A28" s="4" t="n">
+        <v>45047</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>98.09</v>
+        <v>98.03</v>
       </c>
       <c r="C28" s="1">
         <f>(B28/B40-1)*100</f>
@@ -797,11 +799,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n">
-        <v>44986</v>
+      <c r="A29" s="2" t="n">
+        <v>45017</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>98.16</v>
+        <v>98.09</v>
       </c>
       <c r="C29" s="1">
         <f>(B29/B41-1)*100</f>
@@ -810,10 +812,10 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>98.26000000000001</v>
+        <v>98.16</v>
       </c>
       <c r="C30" s="1">
         <f>(B30/B42-1)*100</f>
@@ -821,11 +823,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>44927</v>
+      <c r="A31" s="4" t="n">
+        <v>44958</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>98.38</v>
+        <v>98.26000000000001</v>
       </c>
       <c r="C31" s="1">
         <f>(B31/B43-1)*100</f>
@@ -833,11 +835,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
-        <v>44896</v>
+      <c r="A32" s="2" t="n">
+        <v>44927</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>98.53</v>
+        <v>98.38</v>
       </c>
       <c r="C32" s="1">
         <f>(B32/B44-1)*100</f>
@@ -846,10 +848,10 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>98.73</v>
+        <v>98.53</v>
       </c>
       <c r="C33" s="1">
         <f>(B33/B45-1)*100</f>
@@ -857,11 +859,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>44835</v>
+      <c r="A34" s="4" t="n">
+        <v>44866</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>99.03</v>
+        <v>98.73</v>
       </c>
       <c r="C34" s="1">
         <f>(B34/B46-1)*100</f>
@@ -869,11 +871,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="n">
-        <v>44805</v>
+      <c r="A35" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>99.38</v>
+        <v>99.03</v>
       </c>
       <c r="C35" s="1">
         <f>(B35/B47-1)*100</f>
@@ -882,10 +884,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>99.75</v>
+        <v>99.38</v>
       </c>
       <c r="C36" s="1">
         <f>(B36/B48-1)*100</f>
@@ -893,11 +895,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>44743</v>
+      <c r="A37" s="4" t="n">
+        <v>44774</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>100.25</v>
+        <v>99.75</v>
       </c>
       <c r="C37" s="1">
         <f>(B37/B49-1)*100</f>
@@ -905,11 +907,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n">
-        <v>44713</v>
+      <c r="A38" s="2" t="n">
+        <v>44743</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>100.82</v>
+        <v>100.25</v>
       </c>
       <c r="C38" s="1">
         <f>(B38/B50-1)*100</f>
@@ -918,10 +920,10 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>101.39</v>
+        <v>100.82</v>
       </c>
       <c r="C39" s="1">
         <f>(B39/B51-1)*100</f>
@@ -929,11 +931,11 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>44652</v>
+      <c r="A40" s="4" t="n">
+        <v>44682</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>101.88</v>
+        <v>101.39</v>
       </c>
       <c r="C40" s="1">
         <f>(B40/B52-1)*100</f>
@@ -941,11 +943,11 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="n">
-        <v>44621</v>
+      <c r="A41" s="2" t="n">
+        <v>44652</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>102.3</v>
+        <v>101.88</v>
       </c>
       <c r="C41" s="1">
         <f>(B41/B53-1)*100</f>
@@ -954,10 +956,10 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>102.54</v>
+        <v>102.3</v>
       </c>
       <c r="C42" s="1">
         <f>(B42/B54-1)*100</f>
@@ -965,11 +967,11 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>44562</v>
+      <c r="A43" s="4" t="n">
+        <v>44593</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>102.73</v>
+        <v>102.54</v>
       </c>
       <c r="C43" s="1">
         <f>(B43/B55-1)*100</f>
@@ -977,11 +979,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n">
-        <v>44531</v>
+      <c r="A44" s="2" t="n">
+        <v>44562</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>102.92</v>
+        <v>102.73</v>
       </c>
       <c r="C44" s="1">
         <f>(B44/B56-1)*100</f>
@@ -990,10 +992,10 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>103.05</v>
+        <v>102.92</v>
       </c>
       <c r="C45" s="1">
         <f>(B45/B57-1)*100</f>
@@ -1001,23 +1003,23 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="4" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>103.05</v>
+      </c>
+      <c r="C46" s="1">
+        <f>(B46/B58-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B47" s="3" t="n">
         <v>103.14</v>
-      </c>
-      <c r="C46">
-        <f>(B46/B58-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="4" t="n">
-        <v>44440</v>
-      </c>
-      <c r="B47" s="3" t="n">
-        <v>103.21</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1026,10 +1028,10 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>103.26</v>
+        <v>103.21</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1037,11 +1039,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>44378</v>
+      <c r="A49" s="4" t="n">
+        <v>44409</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>103.28</v>
+        <v>103.26</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1049,11 +1051,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="n">
-        <v>44348</v>
+      <c r="A50" s="2" t="n">
+        <v>44378</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>103.17</v>
+        <v>103.28</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1062,10 +1064,10 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>102.49</v>
+        <v>103.17</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1073,11 +1075,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>44287</v>
+      <c r="A52" s="4" t="n">
+        <v>44317</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>102.11</v>
+        <v>102.49</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1085,11 +1087,11 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="n">
-        <v>44256</v>
+      <c r="A53" s="2" t="n">
+        <v>44287</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>102.1</v>
+        <v>102.11</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1098,10 +1100,10 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>101.4</v>
+        <v>102.1</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1109,11 +1111,11 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>44197</v>
+      <c r="A55" s="4" t="n">
+        <v>44228</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>101.06</v>
+        <v>101.4</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1121,11 +1123,11 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="n">
-        <v>44166</v>
+      <c r="A56" s="2" t="n">
+        <v>44197</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>100.7</v>
+        <v>101.06</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1134,10 +1136,10 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>99.81999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1145,11 +1147,11 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>44105</v>
+      <c r="A58" s="4" t="n">
+        <v>44136</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>99.43000000000001</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1157,9 +1159,21 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" s="3" t="n"/>
+      <c r="A59" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>99.43000000000001</v>
+      </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="3" t="n"/>
+      <c r="C60">
+        <f>(B60/B72-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/cli.xlsx
+++ b/data/cli.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,11 +461,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101.35</v>
+        <v>101.51</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -475,11 +475,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.25</v>
+        <v>101.35</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -489,11 +489,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.91</v>
+        <v>101.25</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -503,11 +503,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.93</v>
+        <v>100.91</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -517,11 +517,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.77</v>
+        <v>100.93</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -531,7 +531,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -545,11 +545,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.97</v>
+        <v>100.77</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -559,23 +559,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100.97</v>
+      </c>
+      <c r="C9">
+        <f>(B9/B21-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>2025-02-01</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>101.04</v>
-      </c>
-      <c r="C9">
-        <f>(B9/B21-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>100.46</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -583,23 +585,23 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="4" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>100.46</v>
+      </c>
+      <c r="C11">
+        <f>(B11/B23-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B12" s="3" t="n">
         <v>100.17</v>
-      </c>
-      <c r="C11" s="1">
-        <f>(B11/B23-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="n">
-        <v>45536</v>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>99.89</v>
       </c>
       <c r="C12" s="1">
         <f>(B12/B24-1)*100</f>
@@ -608,10 +610,10 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>99.63</v>
+        <v>99.89</v>
       </c>
       <c r="C13" s="1">
         <f>(B13/B25-1)*100</f>
@@ -619,11 +621,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45474</v>
+      <c r="A14" s="4" t="n">
+        <v>45505</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>99.38</v>
+        <v>99.63</v>
       </c>
       <c r="C14" s="1">
         <f>(B14/B26-1)*100</f>
@@ -631,11 +633,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
-        <v>45444</v>
+      <c r="A15" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>99.16</v>
+        <v>99.38</v>
       </c>
       <c r="C15" s="1">
         <f>(B15/B27-1)*100</f>
@@ -644,10 +646,10 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>98.95</v>
+        <v>99.16</v>
       </c>
       <c r="C16" s="1">
         <f>(B16/B28-1)*100</f>
@@ -655,11 +657,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45383</v>
+      <c r="A17" s="4" t="n">
+        <v>45413</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>98.75</v>
+        <v>98.95</v>
       </c>
       <c r="C17" s="1">
         <f>(B17/B29-1)*100</f>
@@ -667,11 +669,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
-        <v>45352</v>
+      <c r="A18" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>98.55</v>
+        <v>98.75</v>
       </c>
       <c r="C18" s="1">
         <f>(B18/B30-1)*100</f>
@@ -680,10 +682,10 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>98.34</v>
+        <v>98.55</v>
       </c>
       <c r="C19" s="1">
         <f>(B19/B31-1)*100</f>
@@ -691,11 +693,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45292</v>
+      <c r="A20" s="4" t="n">
+        <v>45323</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>98.15000000000001</v>
+        <v>98.34</v>
       </c>
       <c r="C20" s="1">
         <f>(B20/B32-1)*100</f>
@@ -703,11 +705,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n">
-        <v>45261</v>
+      <c r="A21" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>97.98</v>
+        <v>98.15000000000001</v>
       </c>
       <c r="C21" s="1">
         <f>(B21/B33-1)*100</f>
@@ -716,10 +718,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>97.86</v>
+        <v>97.98</v>
       </c>
       <c r="C22" s="1">
         <f>(B22/B34-1)*100</f>
@@ -727,11 +729,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45200</v>
+      <c r="A23" s="4" t="n">
+        <v>45231</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>97.81</v>
+        <v>97.86</v>
       </c>
       <c r="C23" s="1">
         <f>(B23/B35-1)*100</f>
@@ -739,11 +741,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
-        <v>45170</v>
+      <c r="A24" s="2" t="n">
+        <v>45200</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>97.83</v>
+        <v>97.81</v>
       </c>
       <c r="C24" s="1">
         <f>(B24/B36-1)*100</f>
@@ -752,10 +754,10 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>97.87</v>
+        <v>97.83</v>
       </c>
       <c r="C25" s="1">
         <f>(B25/B37-1)*100</f>
@@ -763,11 +765,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45108</v>
+      <c r="A26" s="4" t="n">
+        <v>45139</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>97.92</v>
+        <v>97.87</v>
       </c>
       <c r="C26" s="1">
         <f>(B26/B38-1)*100</f>
@@ -775,11 +777,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="n">
-        <v>45078</v>
+      <c r="A27" s="2" t="n">
+        <v>45108</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>97.97</v>
+        <v>97.92</v>
       </c>
       <c r="C27" s="1">
         <f>(B27/B39-1)*100</f>
@@ -788,10 +790,10 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>98.03</v>
+        <v>97.97</v>
       </c>
       <c r="C28" s="1">
         <f>(B28/B40-1)*100</f>
@@ -799,11 +801,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45017</v>
+      <c r="A29" s="4" t="n">
+        <v>45047</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>98.09</v>
+        <v>98.03</v>
       </c>
       <c r="C29" s="1">
         <f>(B29/B41-1)*100</f>
@@ -811,11 +813,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
-        <v>44986</v>
+      <c r="A30" s="2" t="n">
+        <v>45017</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>98.16</v>
+        <v>98.09</v>
       </c>
       <c r="C30" s="1">
         <f>(B30/B42-1)*100</f>
@@ -824,10 +826,10 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>98.26000000000001</v>
+        <v>98.16</v>
       </c>
       <c r="C31" s="1">
         <f>(B31/B43-1)*100</f>
@@ -835,11 +837,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>44927</v>
+      <c r="A32" s="4" t="n">
+        <v>44958</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>98.38</v>
+        <v>98.26000000000001</v>
       </c>
       <c r="C32" s="1">
         <f>(B32/B44-1)*100</f>
@@ -847,11 +849,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="n">
-        <v>44896</v>
+      <c r="A33" s="2" t="n">
+        <v>44927</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>98.53</v>
+        <v>98.38</v>
       </c>
       <c r="C33" s="1">
         <f>(B33/B45-1)*100</f>
@@ -860,10 +862,10 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>98.73</v>
+        <v>98.53</v>
       </c>
       <c r="C34" s="1">
         <f>(B34/B46-1)*100</f>
@@ -871,11 +873,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>44835</v>
+      <c r="A35" s="4" t="n">
+        <v>44866</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>99.03</v>
+        <v>98.73</v>
       </c>
       <c r="C35" s="1">
         <f>(B35/B47-1)*100</f>
@@ -883,11 +885,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n">
-        <v>44805</v>
+      <c r="A36" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>99.38</v>
+        <v>99.03</v>
       </c>
       <c r="C36" s="1">
         <f>(B36/B48-1)*100</f>
@@ -896,10 +898,10 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>99.75</v>
+        <v>99.38</v>
       </c>
       <c r="C37" s="1">
         <f>(B37/B49-1)*100</f>
@@ -907,11 +909,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>44743</v>
+      <c r="A38" s="4" t="n">
+        <v>44774</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>100.25</v>
+        <v>99.75</v>
       </c>
       <c r="C38" s="1">
         <f>(B38/B50-1)*100</f>
@@ -919,11 +921,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="n">
-        <v>44713</v>
+      <c r="A39" s="2" t="n">
+        <v>44743</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>100.82</v>
+        <v>100.25</v>
       </c>
       <c r="C39" s="1">
         <f>(B39/B51-1)*100</f>
@@ -932,10 +934,10 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>101.39</v>
+        <v>100.82</v>
       </c>
       <c r="C40" s="1">
         <f>(B40/B52-1)*100</f>
@@ -943,11 +945,11 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>44652</v>
+      <c r="A41" s="4" t="n">
+        <v>44682</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>101.88</v>
+        <v>101.39</v>
       </c>
       <c r="C41" s="1">
         <f>(B41/B53-1)*100</f>
@@ -955,11 +957,11 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="n">
-        <v>44621</v>
+      <c r="A42" s="2" t="n">
+        <v>44652</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>102.3</v>
+        <v>101.88</v>
       </c>
       <c r="C42" s="1">
         <f>(B42/B54-1)*100</f>
@@ -968,10 +970,10 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>102.54</v>
+        <v>102.3</v>
       </c>
       <c r="C43" s="1">
         <f>(B43/B55-1)*100</f>
@@ -979,11 +981,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>44562</v>
+      <c r="A44" s="4" t="n">
+        <v>44593</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>102.73</v>
+        <v>102.54</v>
       </c>
       <c r="C44" s="1">
         <f>(B44/B56-1)*100</f>
@@ -991,11 +993,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="n">
-        <v>44531</v>
+      <c r="A45" s="2" t="n">
+        <v>44562</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>102.92</v>
+        <v>102.73</v>
       </c>
       <c r="C45" s="1">
         <f>(B45/B57-1)*100</f>
@@ -1004,10 +1006,10 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>103.05</v>
+        <v>102.92</v>
       </c>
       <c r="C46" s="1">
         <f>(B46/B58-1)*100</f>
@@ -1015,23 +1017,23 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="4" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>103.05</v>
+      </c>
+      <c r="C47" s="1">
+        <f>(B47/B59-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B48" s="3" t="n">
         <v>103.14</v>
-      </c>
-      <c r="C47">
-        <f>(B47/B59-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="4" t="n">
-        <v>44440</v>
-      </c>
-      <c r="B48" s="3" t="n">
-        <v>103.21</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1040,10 +1042,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>103.26</v>
+        <v>103.21</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1051,11 +1053,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>44378</v>
+      <c r="A50" s="4" t="n">
+        <v>44409</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>103.28</v>
+        <v>103.26</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1063,11 +1065,11 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="n">
-        <v>44348</v>
+      <c r="A51" s="2" t="n">
+        <v>44378</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>103.17</v>
+        <v>103.28</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1076,10 +1078,10 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>102.49</v>
+        <v>103.17</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1087,11 +1089,11 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>44287</v>
+      <c r="A53" s="4" t="n">
+        <v>44317</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>102.11</v>
+        <v>102.49</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1099,11 +1101,11 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="n">
-        <v>44256</v>
+      <c r="A54" s="2" t="n">
+        <v>44287</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>102.1</v>
+        <v>102.11</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1112,10 +1114,10 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>101.4</v>
+        <v>102.1</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1123,11 +1125,11 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>44197</v>
+      <c r="A56" s="4" t="n">
+        <v>44228</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>101.06</v>
+        <v>101.4</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1135,11 +1137,11 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="n">
-        <v>44166</v>
+      <c r="A57" s="2" t="n">
+        <v>44197</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>100.7</v>
+        <v>101.06</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1148,10 +1150,10 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>99.81999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1159,11 +1161,11 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>44105</v>
+      <c r="A59" s="4" t="n">
+        <v>44136</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>99.43000000000001</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
@@ -1171,9 +1173,21 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" s="3" t="n"/>
+      <c r="A60" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>99.43000000000001</v>
+      </c>
       <c r="C60">
         <f>(B60/B72-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="3" t="n"/>
+      <c r="C61">
+        <f>(B61/B73-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/cli.xlsx
+++ b/data/cli.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,11 +461,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-11-01</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101.51</v>
+        <v>101.87</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -475,11 +475,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.35</v>
+        <v>101.51</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -489,11 +489,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.25</v>
+        <v>101.35</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -503,11 +503,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.91</v>
+        <v>101.25</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -517,11 +517,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.93</v>
+        <v>100.91</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -531,11 +531,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.77</v>
+        <v>100.93</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -545,7 +545,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -559,11 +559,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100.97</v>
+        <v>100.77</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -573,23 +573,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100.97</v>
+      </c>
+      <c r="C10">
+        <f>(B10/B22-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>2025-02-01</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>101.04</v>
-      </c>
-      <c r="C10">
-        <f>(B10/B22-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>100.46</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -597,23 +599,23 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="4" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>100.46</v>
+      </c>
+      <c r="C12">
+        <f>(B12/B24-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B13" s="3" t="n">
         <v>100.17</v>
-      </c>
-      <c r="C12" s="1">
-        <f>(B12/B24-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="n">
-        <v>45536</v>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>99.89</v>
       </c>
       <c r="C13" s="1">
         <f>(B13/B25-1)*100</f>
@@ -622,10 +624,10 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>99.63</v>
+        <v>99.89</v>
       </c>
       <c r="C14" s="1">
         <f>(B14/B26-1)*100</f>
@@ -633,11 +635,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45474</v>
+      <c r="A15" s="4" t="n">
+        <v>45505</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>99.38</v>
+        <v>99.63</v>
       </c>
       <c r="C15" s="1">
         <f>(B15/B27-1)*100</f>
@@ -645,11 +647,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
-        <v>45444</v>
+      <c r="A16" s="2" t="n">
+        <v>45474</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>99.16</v>
+        <v>99.38</v>
       </c>
       <c r="C16" s="1">
         <f>(B16/B28-1)*100</f>
@@ -658,10 +660,10 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>98.95</v>
+        <v>99.16</v>
       </c>
       <c r="C17" s="1">
         <f>(B17/B29-1)*100</f>
@@ -669,11 +671,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45383</v>
+      <c r="A18" s="4" t="n">
+        <v>45413</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>98.75</v>
+        <v>98.95</v>
       </c>
       <c r="C18" s="1">
         <f>(B18/B30-1)*100</f>
@@ -681,11 +683,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n">
-        <v>45352</v>
+      <c r="A19" s="2" t="n">
+        <v>45383</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>98.55</v>
+        <v>98.75</v>
       </c>
       <c r="C19" s="1">
         <f>(B19/B31-1)*100</f>
@@ -694,10 +696,10 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>98.34</v>
+        <v>98.55</v>
       </c>
       <c r="C20" s="1">
         <f>(B20/B32-1)*100</f>
@@ -705,11 +707,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45292</v>
+      <c r="A21" s="4" t="n">
+        <v>45323</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>98.15000000000001</v>
+        <v>98.34</v>
       </c>
       <c r="C21" s="1">
         <f>(B21/B33-1)*100</f>
@@ -717,11 +719,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n">
-        <v>45261</v>
+      <c r="A22" s="2" t="n">
+        <v>45292</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>97.98</v>
+        <v>98.15000000000001</v>
       </c>
       <c r="C22" s="1">
         <f>(B22/B34-1)*100</f>
@@ -730,10 +732,10 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>97.86</v>
+        <v>97.98</v>
       </c>
       <c r="C23" s="1">
         <f>(B23/B35-1)*100</f>
@@ -741,11 +743,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45200</v>
+      <c r="A24" s="4" t="n">
+        <v>45231</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>97.81</v>
+        <v>97.86</v>
       </c>
       <c r="C24" s="1">
         <f>(B24/B36-1)*100</f>
@@ -753,11 +755,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n">
-        <v>45170</v>
+      <c r="A25" s="2" t="n">
+        <v>45200</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>97.83</v>
+        <v>97.81</v>
       </c>
       <c r="C25" s="1">
         <f>(B25/B37-1)*100</f>
@@ -766,10 +768,10 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>97.87</v>
+        <v>97.83</v>
       </c>
       <c r="C26" s="1">
         <f>(B26/B38-1)*100</f>
@@ -777,11 +779,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45108</v>
+      <c r="A27" s="4" t="n">
+        <v>45139</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>97.92</v>
+        <v>97.87</v>
       </c>
       <c r="C27" s="1">
         <f>(B27/B39-1)*100</f>
@@ -789,11 +791,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
-        <v>45078</v>
+      <c r="A28" s="2" t="n">
+        <v>45108</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>97.97</v>
+        <v>97.92</v>
       </c>
       <c r="C28" s="1">
         <f>(B28/B40-1)*100</f>
@@ -802,10 +804,10 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>98.03</v>
+        <v>97.97</v>
       </c>
       <c r="C29" s="1">
         <f>(B29/B41-1)*100</f>
@@ -813,11 +815,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45017</v>
+      <c r="A30" s="4" t="n">
+        <v>45047</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>98.09</v>
+        <v>98.03</v>
       </c>
       <c r="C30" s="1">
         <f>(B30/B42-1)*100</f>
@@ -825,11 +827,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="n">
-        <v>44986</v>
+      <c r="A31" s="2" t="n">
+        <v>45017</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>98.16</v>
+        <v>98.09</v>
       </c>
       <c r="C31" s="1">
         <f>(B31/B43-1)*100</f>
@@ -838,10 +840,10 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>98.26000000000001</v>
+        <v>98.16</v>
       </c>
       <c r="C32" s="1">
         <f>(B32/B44-1)*100</f>
@@ -849,11 +851,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>44927</v>
+      <c r="A33" s="4" t="n">
+        <v>44958</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>98.38</v>
+        <v>98.26000000000001</v>
       </c>
       <c r="C33" s="1">
         <f>(B33/B45-1)*100</f>
@@ -861,11 +863,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
-        <v>44896</v>
+      <c r="A34" s="2" t="n">
+        <v>44927</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>98.53</v>
+        <v>98.38</v>
       </c>
       <c r="C34" s="1">
         <f>(B34/B46-1)*100</f>
@@ -874,10 +876,10 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>98.73</v>
+        <v>98.53</v>
       </c>
       <c r="C35" s="1">
         <f>(B35/B47-1)*100</f>
@@ -885,11 +887,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>44835</v>
+      <c r="A36" s="4" t="n">
+        <v>44866</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>99.03</v>
+        <v>98.73</v>
       </c>
       <c r="C36" s="1">
         <f>(B36/B48-1)*100</f>
@@ -897,11 +899,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="n">
-        <v>44805</v>
+      <c r="A37" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>99.38</v>
+        <v>99.03</v>
       </c>
       <c r="C37" s="1">
         <f>(B37/B49-1)*100</f>
@@ -910,10 +912,10 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>99.75</v>
+        <v>99.38</v>
       </c>
       <c r="C38" s="1">
         <f>(B38/B50-1)*100</f>
@@ -921,11 +923,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>44743</v>
+      <c r="A39" s="4" t="n">
+        <v>44774</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>100.25</v>
+        <v>99.75</v>
       </c>
       <c r="C39" s="1">
         <f>(B39/B51-1)*100</f>
@@ -933,11 +935,11 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="n">
-        <v>44713</v>
+      <c r="A40" s="2" t="n">
+        <v>44743</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>100.82</v>
+        <v>100.25</v>
       </c>
       <c r="C40" s="1">
         <f>(B40/B52-1)*100</f>
@@ -946,10 +948,10 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>101.39</v>
+        <v>100.82</v>
       </c>
       <c r="C41" s="1">
         <f>(B41/B53-1)*100</f>
@@ -957,11 +959,11 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>44652</v>
+      <c r="A42" s="4" t="n">
+        <v>44682</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>101.88</v>
+        <v>101.39</v>
       </c>
       <c r="C42" s="1">
         <f>(B42/B54-1)*100</f>
@@ -969,11 +971,11 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="n">
-        <v>44621</v>
+      <c r="A43" s="2" t="n">
+        <v>44652</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>102.3</v>
+        <v>101.88</v>
       </c>
       <c r="C43" s="1">
         <f>(B43/B55-1)*100</f>
@@ -982,10 +984,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>102.54</v>
+        <v>102.3</v>
       </c>
       <c r="C44" s="1">
         <f>(B44/B56-1)*100</f>
@@ -993,11 +995,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>44562</v>
+      <c r="A45" s="4" t="n">
+        <v>44593</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>102.73</v>
+        <v>102.54</v>
       </c>
       <c r="C45" s="1">
         <f>(B45/B57-1)*100</f>
@@ -1005,11 +1007,11 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n">
-        <v>44531</v>
+      <c r="A46" s="2" t="n">
+        <v>44562</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>102.92</v>
+        <v>102.73</v>
       </c>
       <c r="C46" s="1">
         <f>(B46/B58-1)*100</f>
@@ -1018,10 +1020,10 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>103.05</v>
+        <v>102.92</v>
       </c>
       <c r="C47" s="1">
         <f>(B47/B59-1)*100</f>
@@ -1029,23 +1031,23 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="4" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>103.05</v>
+      </c>
+      <c r="C48" s="1">
+        <f>(B48/B60-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B49" s="3" t="n">
         <v>103.14</v>
-      </c>
-      <c r="C48">
-        <f>(B48/B60-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="4" t="n">
-        <v>44440</v>
-      </c>
-      <c r="B49" s="3" t="n">
-        <v>103.21</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1054,10 +1056,10 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>103.26</v>
+        <v>103.21</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1065,11 +1067,11 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>44378</v>
+      <c r="A51" s="4" t="n">
+        <v>44409</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>103.28</v>
+        <v>103.26</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1077,11 +1079,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n">
-        <v>44348</v>
+      <c r="A52" s="2" t="n">
+        <v>44378</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>103.17</v>
+        <v>103.28</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1090,10 +1092,10 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>102.49</v>
+        <v>103.17</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1101,11 +1103,11 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>44287</v>
+      <c r="A54" s="4" t="n">
+        <v>44317</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>102.11</v>
+        <v>102.49</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1113,11 +1115,11 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="n">
-        <v>44256</v>
+      <c r="A55" s="2" t="n">
+        <v>44287</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>102.1</v>
+        <v>102.11</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1126,10 +1128,10 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>101.4</v>
+        <v>102.1</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1137,11 +1139,11 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>44197</v>
+      <c r="A57" s="4" t="n">
+        <v>44228</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>101.06</v>
+        <v>101.4</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1149,11 +1151,11 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="n">
-        <v>44166</v>
+      <c r="A58" s="2" t="n">
+        <v>44197</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>100.7</v>
+        <v>101.06</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1162,10 +1164,10 @@
     </row>
     <row r="59">
       <c r="A59" s="4" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>99.81999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
@@ -1173,11 +1175,11 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>44105</v>
+      <c r="A60" s="4" t="n">
+        <v>44136</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>99.43000000000001</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="C60">
         <f>(B60/B72-1)*100</f>
@@ -1185,9 +1187,21 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" s="3" t="n"/>
+      <c r="A61" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>99.43000000000001</v>
+      </c>
       <c r="C61">
         <f>(B61/B73-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="3" t="n"/>
+      <c r="C62">
+        <f>(B62/B74-1)*100</f>
         <v/>
       </c>
     </row>
